--- a/DB/Tp_pr.xlsx
+++ b/DB/Tp_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD2B027-A91E-4A3E-85AF-DD5E373FB41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06322A65-EA66-4C58-8535-7B47D6C68F80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7752" yWindow="2784" windowWidth="22968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4758,12 +4758,13 @@
   <dimension ref="A1:J401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4771,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>401</v>
@@ -4802,14 +4803,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>680000</v>
@@ -4834,14 +4835,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
       <c r="E3">
         <v>569280</v>
@@ -4866,14 +4867,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
       </c>
       <c r="E4">
         <v>640000</v>
@@ -4898,14 +4899,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>458240</v>
@@ -4930,14 +4931,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
       </c>
       <c r="E6">
         <v>480000</v>
@@ -4962,14 +4963,14 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
       </c>
       <c r="E7">
         <v>422120</v>
@@ -4994,14 +4995,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
       </c>
       <c r="E8">
         <v>880000</v>
@@ -5026,14 +5027,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>45172</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
       </c>
       <c r="E9">
         <v>520000</v>
@@ -5058,14 +5059,14 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
       </c>
       <c r="E10">
         <v>562000</v>
@@ -5090,14 +5091,14 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>73</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
       <c r="E11">
         <v>699320</v>
@@ -5122,14 +5123,14 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
       </c>
       <c r="E12">
         <v>462400</v>
@@ -5154,14 +5155,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
       </c>
       <c r="E13">
         <v>403920</v>
@@ -5186,14 +5187,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
         <v>20335</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
       </c>
       <c r="E14">
         <v>480000</v>
@@ -5218,14 +5219,14 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>76</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
       </c>
       <c r="E15">
         <v>440000</v>
@@ -5250,14 +5251,14 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
       </c>
       <c r="E16">
         <v>440000</v>
@@ -5282,14 +5283,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>78</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
       </c>
       <c r="E17">
         <v>636160</v>
@@ -5314,14 +5315,14 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
       </c>
       <c r="E18">
         <v>700000</v>
@@ -5346,14 +5347,14 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
       </c>
       <c r="E19">
         <v>560000</v>
@@ -5378,14 +5379,14 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>81</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
       </c>
       <c r="E20">
         <v>520000</v>
@@ -5410,14 +5411,14 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
       </c>
       <c r="E21">
         <v>800000</v>
@@ -5442,14 +5443,14 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
       </c>
       <c r="E22">
         <v>832400</v>
@@ -5474,14 +5475,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
       </c>
       <c r="E23">
         <v>451440</v>
@@ -5506,14 +5507,14 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
       </c>
       <c r="E24">
         <v>800000</v>
@@ -5538,14 +5539,14 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>85</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
       </c>
       <c r="E25">
         <v>524000</v>
@@ -5570,14 +5571,14 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>86</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
       </c>
       <c r="E26">
         <v>600000</v>
@@ -5602,14 +5603,14 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
       </c>
       <c r="E27">
         <v>403600</v>
@@ -5634,14 +5635,14 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>78</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
       </c>
       <c r="E28">
         <v>580000</v>
@@ -5666,14 +5667,14 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
       </c>
       <c r="E29">
         <v>600000</v>
@@ -5698,14 +5699,14 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
       </c>
       <c r="E30">
         <v>536000</v>
@@ -5730,14 +5731,14 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
         <v>90</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
       </c>
       <c r="E31">
         <v>616000</v>
@@ -5762,14 +5763,14 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
       </c>
       <c r="E32">
         <v>536000</v>
@@ -5794,14 +5795,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
         <v>92</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
       </c>
       <c r="E33">
         <v>812000</v>
@@ -5826,14 +5827,14 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
       </c>
       <c r="E34">
         <v>424000</v>
@@ -5858,14 +5859,14 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
         <v>94</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
       </c>
       <c r="E35">
         <v>440000</v>
@@ -5890,14 +5891,14 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>95</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
       </c>
       <c r="E36">
         <v>920000</v>
@@ -5922,14 +5923,14 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>96</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
       </c>
       <c r="E37">
         <v>840000</v>
@@ -5954,14 +5955,14 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>97</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
       </c>
       <c r="E38">
         <v>480000</v>
@@ -5986,14 +5987,14 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
       </c>
       <c r="E39">
         <v>620000</v>
@@ -6018,14 +6019,14 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
       </c>
       <c r="E40">
         <v>480480</v>
@@ -6050,14 +6051,14 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>100</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
       </c>
       <c r="E41">
         <v>784000</v>
@@ -6082,14 +6083,14 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>101</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
       </c>
       <c r="E42">
         <v>536000</v>
@@ -6114,14 +6115,14 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>102</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
       </c>
       <c r="E43">
         <v>660000</v>
@@ -6146,14 +6147,14 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>103</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
       </c>
       <c r="E44">
         <v>860000</v>
@@ -6178,14 +6179,14 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
         <v>73</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
       </c>
       <c r="E45">
         <v>470320</v>
@@ -6210,14 +6211,14 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
         <v>99</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
       </c>
       <c r="E46">
         <v>560000</v>
@@ -6242,14 +6243,14 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
         <v>104</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
       </c>
       <c r="E47">
         <v>699320</v>
@@ -6274,14 +6275,14 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>105</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
       </c>
       <c r="E48">
         <v>508000</v>
@@ -6306,14 +6307,14 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>106</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
       </c>
       <c r="E49">
         <v>600000</v>
@@ -6338,14 +6339,14 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>107</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
       </c>
       <c r="E50">
         <v>560000</v>
@@ -6370,14 +6371,14 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>108</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
       </c>
       <c r="E51">
         <v>901920</v>
@@ -6402,14 +6403,14 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
         <v>109</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
       </c>
       <c r="E52">
         <v>932000</v>
@@ -6434,14 +6435,14 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
         <v>110</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
       </c>
       <c r="E53">
         <v>550000</v>
@@ -6466,14 +6467,14 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
         <v>111</v>
-      </c>
-      <c r="C54">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
       </c>
       <c r="E54">
         <v>484000</v>
@@ -6498,14 +6499,14 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
         <v>112</v>
-      </c>
-      <c r="C55">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
       </c>
       <c r="E55">
         <v>572000</v>
@@ -6530,14 +6531,14 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>113</v>
-      </c>
-      <c r="C56">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
       </c>
       <c r="E56">
         <v>600000</v>
@@ -6562,14 +6563,14 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
         <v>114</v>
-      </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
       </c>
       <c r="E57">
         <v>600000</v>
@@ -6594,14 +6595,14 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
         <v>107</v>
-      </c>
-      <c r="C58">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
       </c>
       <c r="E58">
         <v>554360</v>
@@ -6626,14 +6627,14 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
         <v>115</v>
-      </c>
-      <c r="C59">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
       </c>
       <c r="E59">
         <v>600000</v>
@@ -6658,14 +6659,14 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
         <v>116</v>
-      </c>
-      <c r="C60">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
       </c>
       <c r="E60">
         <v>480000</v>
@@ -6690,14 +6691,14 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
         <v>117</v>
-      </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
       </c>
       <c r="E61">
         <v>464000</v>
@@ -6722,14 +6723,14 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
         <v>118</v>
-      </c>
-      <c r="C62">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
       </c>
       <c r="E62">
         <v>655640</v>
@@ -6754,14 +6755,14 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
         <v>119</v>
-      </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
       </c>
       <c r="E63">
         <v>720000</v>
@@ -6786,14 +6787,14 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>120</v>
-      </c>
-      <c r="C64">
-        <v>17</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
       </c>
       <c r="E64">
         <v>880000</v>
@@ -6818,14 +6819,14 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
         <v>121</v>
-      </c>
-      <c r="C65">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
       </c>
       <c r="E65">
         <v>590240</v>
@@ -6850,14 +6851,14 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
         <v>122</v>
-      </c>
-      <c r="C66">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
       </c>
       <c r="E66">
         <v>592000</v>
@@ -6882,14 +6883,14 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
         <v>123</v>
-      </c>
-      <c r="C67">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
       </c>
       <c r="E67">
         <v>560000</v>
@@ -6914,14 +6915,14 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
         <v>124</v>
-      </c>
-      <c r="C68">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
       </c>
       <c r="E68">
         <v>576400</v>
@@ -6946,14 +6947,14 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
         <v>125</v>
-      </c>
-      <c r="C69">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
       </c>
       <c r="E69">
         <v>528000</v>
@@ -6978,14 +6979,14 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
         <v>126</v>
-      </c>
-      <c r="C70">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
       </c>
       <c r="E70">
         <v>444000</v>
@@ -7010,14 +7011,14 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
         <v>127</v>
-      </c>
-      <c r="C71">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
       </c>
       <c r="E71">
         <v>600000</v>
@@ -7042,14 +7043,14 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
         <v>128</v>
-      </c>
-      <c r="C72">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
       </c>
       <c r="E72">
         <v>520000</v>
@@ -7074,14 +7075,14 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
         <v>129</v>
-      </c>
-      <c r="C73">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
       </c>
       <c r="E73">
         <v>668000</v>
@@ -7106,14 +7107,14 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
         <v>130</v>
-      </c>
-      <c r="C74">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
       </c>
       <c r="E74">
         <v>528000</v>
@@ -7138,14 +7139,14 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
         <v>131</v>
-      </c>
-      <c r="C75">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
       </c>
       <c r="E75">
         <v>908000</v>
@@ -7170,14 +7171,14 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
         <v>132</v>
-      </c>
-      <c r="C76">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
       </c>
       <c r="E76">
         <v>808000</v>
@@ -7202,14 +7203,14 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
         <v>121</v>
-      </c>
-      <c r="C77">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
       </c>
       <c r="E77">
         <v>464000</v>
@@ -7234,14 +7235,14 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
         <v>133</v>
-      </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78" t="s">
-        <v>16</v>
       </c>
       <c r="E78">
         <v>562840</v>
@@ -7266,14 +7267,14 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
         <v>134</v>
-      </c>
-      <c r="C79">
-        <v>21</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
       </c>
       <c r="E79">
         <v>840000</v>
@@ -7298,14 +7299,14 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
         <v>135</v>
-      </c>
-      <c r="C80">
-        <v>21</v>
-      </c>
-      <c r="D80" t="s">
-        <v>17</v>
       </c>
       <c r="E80">
         <v>560000</v>
@@ -7330,14 +7331,14 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
         <v>136</v>
-      </c>
-      <c r="C81">
-        <v>21</v>
-      </c>
-      <c r="D81" t="s">
-        <v>17</v>
       </c>
       <c r="E81">
         <v>600000</v>
@@ -7362,14 +7363,14 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
         <v>137</v>
-      </c>
-      <c r="C82">
-        <v>21</v>
-      </c>
-      <c r="D82" t="s">
-        <v>17</v>
       </c>
       <c r="E82">
         <v>440000</v>
@@ -7394,14 +7395,14 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
         <v>107</v>
-      </c>
-      <c r="C83">
-        <v>21</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
       </c>
       <c r="E83">
         <v>440000</v>
@@ -7426,14 +7427,14 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
         <v>138</v>
-      </c>
-      <c r="C84">
-        <v>21</v>
-      </c>
-      <c r="D84" t="s">
-        <v>17</v>
       </c>
       <c r="E84">
         <v>881800</v>
@@ -7458,14 +7459,14 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
         <v>139</v>
-      </c>
-      <c r="C85">
-        <v>21</v>
-      </c>
-      <c r="D85" t="s">
-        <v>17</v>
       </c>
       <c r="E85">
         <v>520000</v>
@@ -7490,14 +7491,14 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
         <v>140</v>
-      </c>
-      <c r="C86">
-        <v>21</v>
-      </c>
-      <c r="D86" t="s">
-        <v>17</v>
       </c>
       <c r="E86">
         <v>480000</v>
@@ -7522,14 +7523,14 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
         <v>141</v>
-      </c>
-      <c r="C87">
-        <v>21</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
       </c>
       <c r="E87">
         <v>480000</v>
@@ -7554,14 +7555,14 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
         <v>142</v>
-      </c>
-      <c r="C88">
-        <v>21</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
       </c>
       <c r="E88">
         <v>630000</v>
@@ -7586,14 +7587,14 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
         <v>143</v>
-      </c>
-      <c r="C89">
-        <v>22</v>
-      </c>
-      <c r="D89" t="s">
-        <v>18</v>
       </c>
       <c r="E89">
         <v>699320</v>
@@ -7618,14 +7619,14 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
         <v>144</v>
-      </c>
-      <c r="C90">
-        <v>22</v>
-      </c>
-      <c r="D90" t="s">
-        <v>18</v>
       </c>
       <c r="E90">
         <v>480000</v>
@@ -7650,14 +7651,14 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
         <v>145</v>
-      </c>
-      <c r="C91">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s">
-        <v>18</v>
       </c>
       <c r="E91">
         <v>440000</v>
@@ -7682,14 +7683,14 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
         <v>146</v>
-      </c>
-      <c r="C92">
-        <v>23</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
       </c>
       <c r="E92">
         <v>800000</v>
@@ -7714,14 +7715,14 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
         <v>147</v>
-      </c>
-      <c r="C93">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
       </c>
       <c r="E93">
         <v>407120</v>
@@ -7746,14 +7747,14 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
         <v>148</v>
-      </c>
-      <c r="C94">
-        <v>23</v>
-      </c>
-      <c r="D94" t="s">
-        <v>19</v>
       </c>
       <c r="E94">
         <v>560000</v>
@@ -7778,14 +7779,14 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
         <v>107</v>
-      </c>
-      <c r="C95">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>19</v>
       </c>
       <c r="E95">
         <v>800000</v>
@@ -7810,14 +7811,14 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
         <v>149</v>
-      </c>
-      <c r="C96">
-        <v>23</v>
-      </c>
-      <c r="D96" t="s">
-        <v>19</v>
       </c>
       <c r="E96">
         <v>600000</v>
@@ -7842,14 +7843,14 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
         <v>150</v>
-      </c>
-      <c r="C97">
-        <v>23</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
       </c>
       <c r="E97">
         <v>496680</v>
@@ -7874,14 +7875,14 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
         <v>151</v>
-      </c>
-      <c r="C98">
-        <v>28</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
       </c>
       <c r="E98">
         <v>540000</v>
@@ -7906,14 +7907,14 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
         <v>152</v>
-      </c>
-      <c r="C99">
-        <v>28</v>
-      </c>
-      <c r="D99" t="s">
-        <v>20</v>
       </c>
       <c r="E99">
         <v>968000</v>
@@ -7938,14 +7939,14 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
         <v>138</v>
-      </c>
-      <c r="C100">
-        <v>28</v>
-      </c>
-      <c r="D100" t="s">
-        <v>20</v>
       </c>
       <c r="E100">
         <v>435280</v>
@@ -7970,14 +7971,14 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
         <v>107</v>
-      </c>
-      <c r="C101">
-        <v>28</v>
-      </c>
-      <c r="D101" t="s">
-        <v>20</v>
       </c>
       <c r="E101">
         <v>616000</v>
@@ -8002,14 +8003,14 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
         <v>153</v>
-      </c>
-      <c r="C102">
-        <v>28</v>
-      </c>
-      <c r="D102" t="s">
-        <v>20</v>
       </c>
       <c r="E102">
         <v>836000</v>
@@ -8034,14 +8035,14 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
         <v>154</v>
-      </c>
-      <c r="C103">
-        <v>29</v>
-      </c>
-      <c r="D103" t="s">
-        <v>21</v>
       </c>
       <c r="E103">
         <v>559800</v>
@@ -8066,14 +8067,14 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
         <v>155</v>
-      </c>
-      <c r="C104">
-        <v>29</v>
-      </c>
-      <c r="D104" t="s">
-        <v>21</v>
       </c>
       <c r="E104">
         <v>480000</v>
@@ -8098,14 +8099,14 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
         <v>156</v>
-      </c>
-      <c r="C105">
-        <v>29</v>
-      </c>
-      <c r="D105" t="s">
-        <v>21</v>
       </c>
       <c r="E105">
         <v>720000</v>
@@ -8130,14 +8131,14 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
         <v>157</v>
-      </c>
-      <c r="C106">
-        <v>29</v>
-      </c>
-      <c r="D106" t="s">
-        <v>21</v>
       </c>
       <c r="E106">
         <v>480000</v>
@@ -8162,11 +8163,11 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
         <v>158</v>
-      </c>
-      <c r="C107">
-        <v>31</v>
       </c>
       <c r="E107">
         <v>560000</v>
@@ -8191,11 +8192,11 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
         <v>159</v>
-      </c>
-      <c r="C108">
-        <v>31</v>
       </c>
       <c r="E108">
         <v>560000</v>
@@ -8220,11 +8221,11 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
         <v>160</v>
-      </c>
-      <c r="C109">
-        <v>31</v>
       </c>
       <c r="E109">
         <v>640000</v>
@@ -8249,14 +8250,14 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
         <v>161</v>
-      </c>
-      <c r="C110">
-        <v>33</v>
-      </c>
-      <c r="D110" t="s">
-        <v>22</v>
       </c>
       <c r="E110">
         <v>528000</v>
@@ -8281,14 +8282,14 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
         <v>162</v>
-      </c>
-      <c r="C111">
-        <v>33</v>
-      </c>
-      <c r="D111" t="s">
-        <v>22</v>
       </c>
       <c r="E111">
         <v>560000</v>
@@ -8313,14 +8314,14 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" t="s">
         <v>163</v>
-      </c>
-      <c r="C112">
-        <v>34</v>
-      </c>
-      <c r="D112" t="s">
-        <v>23</v>
       </c>
       <c r="E112">
         <v>440000</v>
@@ -8345,14 +8346,14 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
         <v>164</v>
-      </c>
-      <c r="C113">
-        <v>35</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
       </c>
       <c r="E113">
         <v>560000</v>
@@ -8377,14 +8378,14 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
         <v>165</v>
-      </c>
-      <c r="C114">
-        <v>35</v>
-      </c>
-      <c r="D114" t="s">
-        <v>24</v>
       </c>
       <c r="E114">
         <v>600000</v>
@@ -8409,14 +8410,14 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
         <v>166</v>
-      </c>
-      <c r="C115">
-        <v>35</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
       </c>
       <c r="E115">
         <v>526680</v>
@@ -8441,14 +8442,14 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
         <v>138</v>
-      </c>
-      <c r="C116">
-        <v>35</v>
-      </c>
-      <c r="D116" t="s">
-        <v>24</v>
       </c>
       <c r="E116">
         <v>514760</v>
@@ -8473,14 +8474,14 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>35</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
         <v>167</v>
-      </c>
-      <c r="C117">
-        <v>35</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
       </c>
       <c r="E117">
         <v>560000</v>
@@ -8505,14 +8506,14 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>35</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
         <v>168</v>
-      </c>
-      <c r="C118">
-        <v>35</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
       </c>
       <c r="E118">
         <v>590680</v>
@@ -8537,14 +8538,14 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
         <v>169</v>
-      </c>
-      <c r="C119">
-        <v>35</v>
-      </c>
-      <c r="D119" t="s">
-        <v>24</v>
       </c>
       <c r="E119">
         <v>560000</v>
@@ -8569,14 +8570,14 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
         <v>170</v>
-      </c>
-      <c r="C120">
-        <v>35</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
       </c>
       <c r="E120">
         <v>560000</v>
@@ -8601,14 +8602,14 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>35</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
         <v>171</v>
-      </c>
-      <c r="C121">
-        <v>35</v>
-      </c>
-      <c r="D121" t="s">
-        <v>24</v>
       </c>
       <c r="E121">
         <v>480000</v>
@@ -8633,14 +8634,14 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>35</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
         <v>172</v>
-      </c>
-      <c r="C122">
-        <v>35</v>
-      </c>
-      <c r="D122" t="s">
-        <v>24</v>
       </c>
       <c r="E122">
         <v>480000</v>
@@ -8665,14 +8666,14 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
         <v>173</v>
-      </c>
-      <c r="C123">
-        <v>35</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
       </c>
       <c r="E123">
         <v>448000</v>
@@ -8697,14 +8698,14 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
         <v>174</v>
-      </c>
-      <c r="C124">
-        <v>35</v>
-      </c>
-      <c r="D124" t="s">
-        <v>24</v>
       </c>
       <c r="E124">
         <v>840000</v>
@@ -8729,14 +8730,14 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>35</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
         <v>175</v>
-      </c>
-      <c r="C125">
-        <v>35</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
       </c>
       <c r="E125">
         <v>760000</v>
@@ -8761,14 +8762,14 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
         <v>176</v>
-      </c>
-      <c r="C126">
-        <v>40</v>
-      </c>
-      <c r="D126" t="s">
-        <v>25</v>
       </c>
       <c r="E126">
         <v>760000</v>
@@ -8793,14 +8794,14 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>41</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
         <v>177</v>
-      </c>
-      <c r="C127">
-        <v>41</v>
-      </c>
-      <c r="D127" t="s">
-        <v>26</v>
       </c>
       <c r="E127">
         <v>600000</v>
@@ -8825,14 +8826,14 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>41</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
         <v>178</v>
-      </c>
-      <c r="C128">
-        <v>41</v>
-      </c>
-      <c r="D128" t="s">
-        <v>26</v>
       </c>
       <c r="E128">
         <v>600000</v>
@@ -8857,14 +8858,14 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>41</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
         <v>179</v>
-      </c>
-      <c r="C129">
-        <v>41</v>
-      </c>
-      <c r="D129" t="s">
-        <v>26</v>
       </c>
       <c r="E129">
         <v>440000</v>
@@ -8889,14 +8890,14 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>41</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
         <v>180</v>
-      </c>
-      <c r="C130">
-        <v>41</v>
-      </c>
-      <c r="D130" t="s">
-        <v>26</v>
       </c>
       <c r="E130">
         <v>560000</v>
@@ -8921,14 +8922,14 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
         <v>181</v>
-      </c>
-      <c r="C131">
-        <v>43</v>
-      </c>
-      <c r="D131" t="s">
-        <v>27</v>
       </c>
       <c r="E131">
         <v>665040</v>
@@ -8953,14 +8954,14 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
         <v>182</v>
-      </c>
-      <c r="C132">
-        <v>43</v>
-      </c>
-      <c r="D132" t="s">
-        <v>27</v>
       </c>
       <c r="E132">
         <v>616000</v>
@@ -8985,14 +8986,14 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
         <v>183</v>
-      </c>
-      <c r="C133">
-        <v>44</v>
-      </c>
-      <c r="D133" t="s">
-        <v>28</v>
       </c>
       <c r="E133">
         <v>720000</v>
@@ -9017,14 +9018,14 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
         <v>184</v>
-      </c>
-      <c r="C134">
-        <v>44</v>
-      </c>
-      <c r="D134" t="s">
-        <v>28</v>
       </c>
       <c r="E134">
         <v>604000</v>
@@ -9049,14 +9050,14 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
         <v>185</v>
-      </c>
-      <c r="C135">
-        <v>44</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
       </c>
       <c r="E135">
         <v>506000</v>
@@ -9081,14 +9082,14 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
         <v>186</v>
-      </c>
-      <c r="C136">
-        <v>44</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
       </c>
       <c r="E136">
         <v>720000</v>
@@ -9113,14 +9114,14 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>53</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
         <v>187</v>
-      </c>
-      <c r="C137">
-        <v>53</v>
-      </c>
-      <c r="D137" t="s">
-        <v>29</v>
       </c>
       <c r="E137">
         <v>694800</v>
@@ -9145,14 +9146,14 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
         <v>188</v>
-      </c>
-      <c r="C138">
-        <v>53</v>
-      </c>
-      <c r="D138" t="s">
-        <v>29</v>
       </c>
       <c r="E138">
         <v>640000</v>
@@ -9177,14 +9178,14 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>53</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
         <v>96</v>
-      </c>
-      <c r="C139">
-        <v>53</v>
-      </c>
-      <c r="D139" t="s">
-        <v>29</v>
       </c>
       <c r="E139">
         <v>920000</v>
@@ -9209,14 +9210,14 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>53</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
         <v>189</v>
-      </c>
-      <c r="C140">
-        <v>53</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
       </c>
       <c r="E140">
         <v>480000</v>
@@ -9241,14 +9242,14 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>53</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
         <v>190</v>
-      </c>
-      <c r="C141">
-        <v>53</v>
-      </c>
-      <c r="D141" t="s">
-        <v>29</v>
       </c>
       <c r="E141">
         <v>480000</v>
@@ -9273,14 +9274,14 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>53</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
         <v>191</v>
-      </c>
-      <c r="C142">
-        <v>53</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
       </c>
       <c r="E142">
         <v>452000</v>
@@ -9305,14 +9306,14 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>53</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
         <v>192</v>
-      </c>
-      <c r="C143">
-        <v>53</v>
-      </c>
-      <c r="D143" t="s">
-        <v>29</v>
       </c>
       <c r="E143">
         <v>800000</v>
@@ -9337,14 +9338,14 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>53</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
         <v>193</v>
-      </c>
-      <c r="C144">
-        <v>53</v>
-      </c>
-      <c r="D144" t="s">
-        <v>29</v>
       </c>
       <c r="E144">
         <v>506000</v>
@@ -9369,14 +9370,14 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>54</v>
+      </c>
+      <c r="C145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" t="s">
         <v>194</v>
-      </c>
-      <c r="C145">
-        <v>54</v>
-      </c>
-      <c r="D145" t="s">
-        <v>30</v>
       </c>
       <c r="E145">
         <v>800000</v>
@@ -9401,14 +9402,14 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>54</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
         <v>195</v>
-      </c>
-      <c r="C146">
-        <v>54</v>
-      </c>
-      <c r="D146" t="s">
-        <v>30</v>
       </c>
       <c r="E146">
         <v>407120</v>
@@ -9433,14 +9434,14 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>54</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" t="s">
         <v>196</v>
-      </c>
-      <c r="C147">
-        <v>54</v>
-      </c>
-      <c r="D147" t="s">
-        <v>30</v>
       </c>
       <c r="E147">
         <v>440000</v>
@@ -9465,14 +9466,14 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>54</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
         <v>197</v>
-      </c>
-      <c r="C148">
-        <v>54</v>
-      </c>
-      <c r="D148" t="s">
-        <v>30</v>
       </c>
       <c r="E148">
         <v>833640</v>
@@ -9497,14 +9498,14 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
         <v>198</v>
-      </c>
-      <c r="C149">
-        <v>54</v>
-      </c>
-      <c r="D149" t="s">
-        <v>30</v>
       </c>
       <c r="E149">
         <v>446400</v>
@@ -9529,14 +9530,14 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>54</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
         <v>103</v>
-      </c>
-      <c r="C150">
-        <v>54</v>
-      </c>
-      <c r="D150" t="s">
-        <v>30</v>
       </c>
       <c r="E150">
         <v>494200</v>
@@ -9561,14 +9562,14 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>55</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s">
         <v>199</v>
-      </c>
-      <c r="C151">
-        <v>55</v>
-      </c>
-      <c r="D151" t="s">
-        <v>31</v>
       </c>
       <c r="E151">
         <v>480000</v>
@@ -9593,14 +9594,14 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152">
+        <v>55</v>
+      </c>
+      <c r="C152" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" t="s">
         <v>200</v>
-      </c>
-      <c r="C152">
-        <v>55</v>
-      </c>
-      <c r="D152" t="s">
-        <v>31</v>
       </c>
       <c r="E152">
         <v>520000</v>
@@ -9625,14 +9626,14 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153">
+        <v>55</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
         <v>201</v>
-      </c>
-      <c r="C153">
-        <v>55</v>
-      </c>
-      <c r="D153" t="s">
-        <v>31</v>
       </c>
       <c r="E153">
         <v>647840</v>
@@ -9657,14 +9658,14 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
+        <v>55</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" s="1">
         <v>44210</v>
-      </c>
-      <c r="C154">
-        <v>55</v>
-      </c>
-      <c r="D154" t="s">
-        <v>31</v>
       </c>
       <c r="E154">
         <v>508000</v>
@@ -9689,14 +9690,14 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>55</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" t="s">
         <v>202</v>
-      </c>
-      <c r="C155">
-        <v>55</v>
-      </c>
-      <c r="D155" t="s">
-        <v>31</v>
       </c>
       <c r="E155">
         <v>624000</v>
@@ -9721,14 +9722,14 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156">
+        <v>55</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s">
         <v>203</v>
-      </c>
-      <c r="C156">
-        <v>55</v>
-      </c>
-      <c r="D156" t="s">
-        <v>31</v>
       </c>
       <c r="E156">
         <v>680000</v>
@@ -9753,14 +9754,14 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157">
+        <v>55</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" t="s">
         <v>204</v>
-      </c>
-      <c r="C157">
-        <v>55</v>
-      </c>
-      <c r="D157" t="s">
-        <v>31</v>
       </c>
       <c r="E157">
         <v>619120</v>
@@ -9785,14 +9786,14 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158">
+        <v>55</v>
+      </c>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" t="s">
         <v>205</v>
-      </c>
-      <c r="C158">
-        <v>55</v>
-      </c>
-      <c r="D158" t="s">
-        <v>31</v>
       </c>
       <c r="E158">
         <v>705720</v>
@@ -9817,14 +9818,14 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159">
+        <v>55</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" t="s">
         <v>206</v>
-      </c>
-      <c r="C159">
-        <v>55</v>
-      </c>
-      <c r="D159" t="s">
-        <v>31</v>
       </c>
       <c r="E159">
         <v>560000</v>
@@ -9849,14 +9850,14 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160" t="s">
         <v>207</v>
-      </c>
-      <c r="C160">
-        <v>55</v>
-      </c>
-      <c r="D160" t="s">
-        <v>31</v>
       </c>
       <c r="E160">
         <v>440000</v>
@@ -9881,14 +9882,14 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>55</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s">
         <v>114</v>
-      </c>
-      <c r="C161">
-        <v>55</v>
-      </c>
-      <c r="D161" t="s">
-        <v>31</v>
       </c>
       <c r="E161">
         <v>480000</v>
@@ -9913,14 +9914,14 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162">
+        <v>56</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
         <v>208</v>
-      </c>
-      <c r="C162">
-        <v>56</v>
-      </c>
-      <c r="D162" t="s">
-        <v>32</v>
       </c>
       <c r="E162">
         <v>800000</v>
@@ -9945,14 +9946,14 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163">
+        <v>56</v>
+      </c>
+      <c r="C163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" t="s">
         <v>209</v>
-      </c>
-      <c r="C163">
-        <v>56</v>
-      </c>
-      <c r="D163" t="s">
-        <v>32</v>
       </c>
       <c r="E163">
         <v>756000</v>
@@ -9977,14 +9978,14 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s">
         <v>210</v>
-      </c>
-      <c r="C164">
-        <v>56</v>
-      </c>
-      <c r="D164" t="s">
-        <v>32</v>
       </c>
       <c r="E164">
         <v>618880</v>
@@ -10009,14 +10010,14 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
         <v>211</v>
-      </c>
-      <c r="C165">
-        <v>56</v>
-      </c>
-      <c r="D165" t="s">
-        <v>32</v>
       </c>
       <c r="E165">
         <v>740000</v>
@@ -10041,14 +10042,14 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166">
+        <v>56</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s">
         <v>212</v>
-      </c>
-      <c r="C166">
-        <v>56</v>
-      </c>
-      <c r="D166" t="s">
-        <v>32</v>
       </c>
       <c r="E166">
         <v>680000</v>
@@ -10073,14 +10074,14 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s">
         <v>213</v>
-      </c>
-      <c r="C167">
-        <v>56</v>
-      </c>
-      <c r="D167" t="s">
-        <v>32</v>
       </c>
       <c r="E167">
         <v>403680</v>
@@ -10105,14 +10106,14 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
         <v>214</v>
-      </c>
-      <c r="C168">
-        <v>56</v>
-      </c>
-      <c r="D168" t="s">
-        <v>32</v>
       </c>
       <c r="E168">
         <v>960000</v>
@@ -10137,14 +10138,14 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="C169" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" t="s">
         <v>215</v>
-      </c>
-      <c r="C169">
-        <v>56</v>
-      </c>
-      <c r="D169" t="s">
-        <v>32</v>
       </c>
       <c r="E169">
         <v>423880</v>
@@ -10169,14 +10170,14 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>56</v>
+      </c>
+      <c r="C170" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" t="s">
         <v>216</v>
-      </c>
-      <c r="C170">
-        <v>56</v>
-      </c>
-      <c r="D170" t="s">
-        <v>32</v>
       </c>
       <c r="E170">
         <v>440000</v>
@@ -10201,14 +10202,14 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171">
+        <v>56</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
         <v>217</v>
-      </c>
-      <c r="C171">
-        <v>56</v>
-      </c>
-      <c r="D171" t="s">
-        <v>32</v>
       </c>
       <c r="E171">
         <v>760720</v>
@@ -10233,14 +10234,14 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
         <v>218</v>
-      </c>
-      <c r="C172">
-        <v>56</v>
-      </c>
-      <c r="D172" t="s">
-        <v>32</v>
       </c>
       <c r="E172">
         <v>928720</v>
@@ -10265,14 +10266,14 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" t="s">
         <v>219</v>
-      </c>
-      <c r="C173">
-        <v>56</v>
-      </c>
-      <c r="D173" t="s">
-        <v>32</v>
       </c>
       <c r="E173">
         <v>480000</v>
@@ -10297,14 +10298,14 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>33</v>
+      </c>
+      <c r="D174" t="s">
         <v>220</v>
-      </c>
-      <c r="C174">
-        <v>57</v>
-      </c>
-      <c r="D174" t="s">
-        <v>33</v>
       </c>
       <c r="E174">
         <v>520000</v>
@@ -10329,14 +10330,14 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" t="s">
         <v>221</v>
-      </c>
-      <c r="C175">
-        <v>57</v>
-      </c>
-      <c r="D175" t="s">
-        <v>33</v>
       </c>
       <c r="E175">
         <v>600000</v>
@@ -10361,14 +10362,14 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" t="s">
         <v>222</v>
-      </c>
-      <c r="C176">
-        <v>57</v>
-      </c>
-      <c r="D176" t="s">
-        <v>33</v>
       </c>
       <c r="E176">
         <v>496000</v>
@@ -10393,14 +10394,14 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177">
+        <v>57</v>
+      </c>
+      <c r="C177" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" t="s">
         <v>223</v>
-      </c>
-      <c r="C177">
-        <v>57</v>
-      </c>
-      <c r="D177" t="s">
-        <v>33</v>
       </c>
       <c r="E177">
         <v>707080</v>
@@ -10425,14 +10426,14 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178">
+        <v>57</v>
+      </c>
+      <c r="C178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" t="s">
         <v>220</v>
-      </c>
-      <c r="C178">
-        <v>57</v>
-      </c>
-      <c r="D178" t="s">
-        <v>33</v>
       </c>
       <c r="E178">
         <v>680000</v>
@@ -10457,14 +10458,14 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179">
+        <v>57</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
         <v>224</v>
-      </c>
-      <c r="C179">
-        <v>57</v>
-      </c>
-      <c r="D179" t="s">
-        <v>33</v>
       </c>
       <c r="E179">
         <v>594360</v>
@@ -10489,14 +10490,14 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180">
+        <v>58</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
         <v>225</v>
-      </c>
-      <c r="C180">
-        <v>58</v>
-      </c>
-      <c r="D180" t="s">
-        <v>34</v>
       </c>
       <c r="E180">
         <v>520520</v>
@@ -10521,14 +10522,14 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181">
+        <v>58</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
         <v>226</v>
-      </c>
-      <c r="C181">
-        <v>58</v>
-      </c>
-      <c r="D181" t="s">
-        <v>34</v>
       </c>
       <c r="E181">
         <v>480000</v>
@@ -10553,14 +10554,14 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182">
+        <v>58</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
         <v>227</v>
-      </c>
-      <c r="C182">
-        <v>58</v>
-      </c>
-      <c r="D182" t="s">
-        <v>34</v>
       </c>
       <c r="E182">
         <v>480000</v>
@@ -10585,14 +10586,14 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183">
+        <v>58</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
         <v>228</v>
-      </c>
-      <c r="C183">
-        <v>58</v>
-      </c>
-      <c r="D183" t="s">
-        <v>34</v>
       </c>
       <c r="E183">
         <v>536000</v>
@@ -10617,14 +10618,14 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184">
+        <v>60</v>
+      </c>
+      <c r="C184" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" t="s">
         <v>229</v>
-      </c>
-      <c r="C184">
-        <v>60</v>
-      </c>
-      <c r="D184" t="s">
-        <v>35</v>
       </c>
       <c r="E184">
         <v>480000</v>
@@ -10649,14 +10650,14 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185">
+        <v>60</v>
+      </c>
+      <c r="C185" t="s">
+        <v>35</v>
+      </c>
+      <c r="D185" t="s">
         <v>230</v>
-      </c>
-      <c r="C185">
-        <v>60</v>
-      </c>
-      <c r="D185" t="s">
-        <v>35</v>
       </c>
       <c r="E185">
         <v>796000</v>
@@ -10681,14 +10682,14 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="C186" t="s">
+        <v>35</v>
+      </c>
+      <c r="D186" t="s">
         <v>70</v>
-      </c>
-      <c r="C186">
-        <v>60</v>
-      </c>
-      <c r="D186" t="s">
-        <v>35</v>
       </c>
       <c r="E186">
         <v>528000</v>
@@ -10713,14 +10714,14 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187">
+        <v>60</v>
+      </c>
+      <c r="C187" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" t="s">
         <v>231</v>
-      </c>
-      <c r="C187">
-        <v>60</v>
-      </c>
-      <c r="D187" t="s">
-        <v>35</v>
       </c>
       <c r="E187">
         <v>572000</v>
@@ -10745,14 +10746,14 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188">
+        <v>60</v>
+      </c>
+      <c r="C188" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" t="s">
         <v>232</v>
-      </c>
-      <c r="C188">
-        <v>60</v>
-      </c>
-      <c r="D188" t="s">
-        <v>35</v>
       </c>
       <c r="E188">
         <v>576400</v>
@@ -10777,14 +10778,14 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189">
+        <v>60</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" t="s">
         <v>193</v>
-      </c>
-      <c r="C189">
-        <v>60</v>
-      </c>
-      <c r="D189" t="s">
-        <v>35</v>
       </c>
       <c r="E189">
         <v>665040</v>
@@ -10809,14 +10810,14 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190">
+        <v>60</v>
+      </c>
+      <c r="C190" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" t="s">
         <v>233</v>
-      </c>
-      <c r="C190">
-        <v>60</v>
-      </c>
-      <c r="D190" t="s">
-        <v>35</v>
       </c>
       <c r="E190">
         <v>405920</v>
@@ -10841,14 +10842,14 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191">
+        <v>61</v>
+      </c>
+      <c r="C191" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" t="s">
         <v>234</v>
-      </c>
-      <c r="C191">
-        <v>61</v>
-      </c>
-      <c r="D191" t="s">
-        <v>36</v>
       </c>
       <c r="E191">
         <v>560000</v>
@@ -10873,14 +10874,14 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192">
+        <v>61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>36</v>
+      </c>
+      <c r="D192" t="s">
         <v>107</v>
-      </c>
-      <c r="C192">
-        <v>61</v>
-      </c>
-      <c r="D192" t="s">
-        <v>36</v>
       </c>
       <c r="E192">
         <v>600000</v>
@@ -10905,14 +10906,14 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193">
+        <v>61</v>
+      </c>
+      <c r="C193" t="s">
+        <v>36</v>
+      </c>
+      <c r="D193" t="s">
         <v>235</v>
-      </c>
-      <c r="C193">
-        <v>61</v>
-      </c>
-      <c r="D193" t="s">
-        <v>36</v>
       </c>
       <c r="E193">
         <v>536000</v>
@@ -10937,14 +10938,14 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194">
+        <v>62</v>
+      </c>
+      <c r="C194" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194" t="s">
         <v>236</v>
-      </c>
-      <c r="C194">
-        <v>62</v>
-      </c>
-      <c r="D194" t="s">
-        <v>37</v>
       </c>
       <c r="E194">
         <v>560000</v>
@@ -10969,14 +10970,14 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195">
+        <v>62</v>
+      </c>
+      <c r="C195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
         <v>237</v>
-      </c>
-      <c r="C195">
-        <v>62</v>
-      </c>
-      <c r="D195" t="s">
-        <v>37</v>
       </c>
       <c r="E195">
         <v>720000</v>
@@ -11001,14 +11002,14 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196">
+        <v>65</v>
+      </c>
+      <c r="C196" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" t="s">
         <v>238</v>
-      </c>
-      <c r="C196">
-        <v>65</v>
-      </c>
-      <c r="D196" t="s">
-        <v>38</v>
       </c>
       <c r="E196">
         <v>600000</v>
@@ -11033,14 +11034,14 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197">
+        <v>65</v>
+      </c>
+      <c r="C197" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197" t="s">
         <v>239</v>
-      </c>
-      <c r="C197">
-        <v>65</v>
-      </c>
-      <c r="D197" t="s">
-        <v>38</v>
       </c>
       <c r="E197">
         <v>440000</v>
@@ -11065,14 +11066,14 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198">
+        <v>65</v>
+      </c>
+      <c r="C198" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" t="s">
         <v>240</v>
-      </c>
-      <c r="C198">
-        <v>65</v>
-      </c>
-      <c r="D198" t="s">
-        <v>38</v>
       </c>
       <c r="E198">
         <v>880000</v>
@@ -11097,14 +11098,14 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199">
+        <v>65</v>
+      </c>
+      <c r="C199" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" t="s">
         <v>241</v>
-      </c>
-      <c r="C199">
-        <v>65</v>
-      </c>
-      <c r="D199" t="s">
-        <v>38</v>
       </c>
       <c r="E199">
         <v>504000</v>
@@ -11129,14 +11130,14 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200">
+        <v>66</v>
+      </c>
+      <c r="C200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" t="s">
         <v>242</v>
-      </c>
-      <c r="C200">
-        <v>66</v>
-      </c>
-      <c r="D200" t="s">
-        <v>39</v>
       </c>
       <c r="E200">
         <v>640000</v>
@@ -11161,14 +11162,14 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201">
+        <v>67</v>
+      </c>
+      <c r="C201" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" t="s">
         <v>243</v>
-      </c>
-      <c r="C201">
-        <v>67</v>
-      </c>
-      <c r="D201" t="s">
-        <v>40</v>
       </c>
       <c r="E201">
         <v>860600</v>
@@ -11193,14 +11194,14 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202">
+        <v>67</v>
+      </c>
+      <c r="C202" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" t="s">
         <v>244</v>
-      </c>
-      <c r="C202">
-        <v>67</v>
-      </c>
-      <c r="D202" t="s">
-        <v>40</v>
       </c>
       <c r="E202">
         <v>600000</v>
@@ -11225,14 +11226,14 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203">
+        <v>67</v>
+      </c>
+      <c r="C203" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" t="s">
         <v>245</v>
-      </c>
-      <c r="C203">
-        <v>67</v>
-      </c>
-      <c r="D203" t="s">
-        <v>40</v>
       </c>
       <c r="E203">
         <v>720000</v>
@@ -11257,14 +11258,14 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204">
+        <v>67</v>
+      </c>
+      <c r="C204" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" t="s">
         <v>246</v>
-      </c>
-      <c r="C204">
-        <v>67</v>
-      </c>
-      <c r="D204" t="s">
-        <v>40</v>
       </c>
       <c r="E204">
         <v>520000</v>
@@ -11289,14 +11290,14 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205">
+        <v>68</v>
+      </c>
+      <c r="C205" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" t="s">
         <v>193</v>
-      </c>
-      <c r="C205">
-        <v>68</v>
-      </c>
-      <c r="D205" t="s">
-        <v>41</v>
       </c>
       <c r="E205">
         <v>528000</v>
@@ -11321,14 +11322,14 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206">
+        <v>69</v>
+      </c>
+      <c r="C206" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" t="s">
         <v>247</v>
-      </c>
-      <c r="C206">
-        <v>69</v>
-      </c>
-      <c r="D206" t="s">
-        <v>42</v>
       </c>
       <c r="E206">
         <v>605920</v>
@@ -11353,14 +11354,14 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207">
+        <v>69</v>
+      </c>
+      <c r="C207" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" t="s">
         <v>221</v>
-      </c>
-      <c r="C207">
-        <v>69</v>
-      </c>
-      <c r="D207" t="s">
-        <v>42</v>
       </c>
       <c r="E207">
         <v>440000</v>
@@ -11385,14 +11386,14 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208">
+        <v>69</v>
+      </c>
+      <c r="C208" t="s">
+        <v>42</v>
+      </c>
+      <c r="D208" t="s">
         <v>248</v>
-      </c>
-      <c r="C208">
-        <v>69</v>
-      </c>
-      <c r="D208" t="s">
-        <v>42</v>
       </c>
       <c r="E208">
         <v>934760</v>
@@ -11417,14 +11418,14 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209">
+        <v>69</v>
+      </c>
+      <c r="C209" t="s">
+        <v>42</v>
+      </c>
+      <c r="D209" t="s">
         <v>249</v>
-      </c>
-      <c r="C209">
-        <v>69</v>
-      </c>
-      <c r="D209" t="s">
-        <v>42</v>
       </c>
       <c r="E209">
         <v>680000</v>
@@ -11449,14 +11450,14 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210">
+        <v>69</v>
+      </c>
+      <c r="C210" t="s">
+        <v>42</v>
+      </c>
+      <c r="D210" t="s">
         <v>250</v>
-      </c>
-      <c r="C210">
-        <v>69</v>
-      </c>
-      <c r="D210" t="s">
-        <v>42</v>
       </c>
       <c r="E210">
         <v>520000</v>
@@ -11481,14 +11482,14 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211">
+        <v>69</v>
+      </c>
+      <c r="C211" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" t="s">
         <v>251</v>
-      </c>
-      <c r="C211">
-        <v>69</v>
-      </c>
-      <c r="D211" t="s">
-        <v>42</v>
       </c>
       <c r="E211">
         <v>480000</v>
@@ -11513,14 +11514,14 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212">
+        <v>69</v>
+      </c>
+      <c r="C212" t="s">
+        <v>42</v>
+      </c>
+      <c r="D212" t="s">
         <v>239</v>
-      </c>
-      <c r="C212">
-        <v>69</v>
-      </c>
-      <c r="D212" t="s">
-        <v>42</v>
       </c>
       <c r="E212">
         <v>640000</v>
@@ -11545,14 +11546,14 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213">
+        <v>69</v>
+      </c>
+      <c r="C213" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" t="s">
         <v>252</v>
-      </c>
-      <c r="C213">
-        <v>69</v>
-      </c>
-      <c r="D213" t="s">
-        <v>42</v>
       </c>
       <c r="E213">
         <v>760000</v>
@@ -11577,14 +11578,14 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214">
+        <v>69</v>
+      </c>
+      <c r="C214" t="s">
+        <v>42</v>
+      </c>
+      <c r="D214" t="s">
         <v>253</v>
-      </c>
-      <c r="C214">
-        <v>69</v>
-      </c>
-      <c r="D214" t="s">
-        <v>42</v>
       </c>
       <c r="E214">
         <v>440000</v>
@@ -11609,14 +11610,14 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215">
+        <v>69</v>
+      </c>
+      <c r="C215" t="s">
+        <v>42</v>
+      </c>
+      <c r="D215" t="s">
         <v>254</v>
-      </c>
-      <c r="C215">
-        <v>69</v>
-      </c>
-      <c r="D215" t="s">
-        <v>42</v>
       </c>
       <c r="E215">
         <v>480000</v>
@@ -11641,14 +11642,14 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216">
+        <v>69</v>
+      </c>
+      <c r="C216" t="s">
+        <v>42</v>
+      </c>
+      <c r="D216" t="s">
         <v>255</v>
-      </c>
-      <c r="C216">
-        <v>69</v>
-      </c>
-      <c r="D216" t="s">
-        <v>42</v>
       </c>
       <c r="E216">
         <v>480000</v>
@@ -11673,14 +11674,14 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217">
+        <v>69</v>
+      </c>
+      <c r="C217" t="s">
+        <v>42</v>
+      </c>
+      <c r="D217" t="s">
         <v>256</v>
-      </c>
-      <c r="C217">
-        <v>69</v>
-      </c>
-      <c r="D217" t="s">
-        <v>42</v>
       </c>
       <c r="E217">
         <v>440000</v>
@@ -11705,14 +11706,14 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218">
+        <v>69</v>
+      </c>
+      <c r="C218" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" t="s">
         <v>257</v>
-      </c>
-      <c r="C218">
-        <v>69</v>
-      </c>
-      <c r="D218" t="s">
-        <v>42</v>
       </c>
       <c r="E218">
         <v>680000</v>
@@ -11737,14 +11738,14 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219">
+        <v>69</v>
+      </c>
+      <c r="C219" t="s">
+        <v>42</v>
+      </c>
+      <c r="D219" t="s">
         <v>258</v>
-      </c>
-      <c r="C219">
-        <v>69</v>
-      </c>
-      <c r="D219" t="s">
-        <v>42</v>
       </c>
       <c r="E219">
         <v>440000</v>
@@ -11769,14 +11770,14 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220">
+        <v>69</v>
+      </c>
+      <c r="C220" t="s">
+        <v>42</v>
+      </c>
+      <c r="D220" t="s">
         <v>254</v>
-      </c>
-      <c r="C220">
-        <v>69</v>
-      </c>
-      <c r="D220" t="s">
-        <v>42</v>
       </c>
       <c r="E220">
         <v>480000</v>
@@ -11801,14 +11802,14 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221">
+        <v>69</v>
+      </c>
+      <c r="C221" t="s">
+        <v>42</v>
+      </c>
+      <c r="D221" t="s">
         <v>259</v>
-      </c>
-      <c r="C221">
-        <v>69</v>
-      </c>
-      <c r="D221" t="s">
-        <v>42</v>
       </c>
       <c r="E221">
         <v>443360</v>
@@ -11833,14 +11834,14 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222">
+        <v>69</v>
+      </c>
+      <c r="C222" t="s">
+        <v>42</v>
+      </c>
+      <c r="D222" t="s">
         <v>260</v>
-      </c>
-      <c r="C222">
-        <v>69</v>
-      </c>
-      <c r="D222" t="s">
-        <v>42</v>
       </c>
       <c r="E222">
         <v>496000</v>
@@ -11865,14 +11866,14 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223">
+        <v>70</v>
+      </c>
+      <c r="C223" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" t="s">
         <v>261</v>
-      </c>
-      <c r="C223">
-        <v>70</v>
-      </c>
-      <c r="D223" t="s">
-        <v>43</v>
       </c>
       <c r="E223">
         <v>989680</v>
@@ -11897,14 +11898,14 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224">
+        <v>71</v>
+      </c>
+      <c r="C224" t="s">
+        <v>44</v>
+      </c>
+      <c r="D224" t="s">
         <v>107</v>
-      </c>
-      <c r="C224">
-        <v>71</v>
-      </c>
-      <c r="D224" t="s">
-        <v>44</v>
       </c>
       <c r="E224">
         <v>704000</v>
@@ -11929,14 +11930,14 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225">
+        <v>71</v>
+      </c>
+      <c r="C225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D225" t="s">
         <v>262</v>
-      </c>
-      <c r="C225">
-        <v>71</v>
-      </c>
-      <c r="D225" t="s">
-        <v>44</v>
       </c>
       <c r="E225">
         <v>600000</v>
@@ -11961,14 +11962,14 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226">
+        <v>71</v>
+      </c>
+      <c r="C226" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226" t="s">
         <v>263</v>
-      </c>
-      <c r="C226">
-        <v>71</v>
-      </c>
-      <c r="D226" t="s">
-        <v>44</v>
       </c>
       <c r="E226">
         <v>774520</v>
@@ -11993,14 +11994,14 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227">
+        <v>71</v>
+      </c>
+      <c r="C227" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227" t="s">
         <v>264</v>
-      </c>
-      <c r="C227">
-        <v>71</v>
-      </c>
-      <c r="D227" t="s">
-        <v>44</v>
       </c>
       <c r="E227">
         <v>560000</v>
@@ -12025,14 +12026,14 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228">
+        <v>71</v>
+      </c>
+      <c r="C228" t="s">
+        <v>44</v>
+      </c>
+      <c r="D228" t="s">
         <v>107</v>
-      </c>
-      <c r="C228">
-        <v>71</v>
-      </c>
-      <c r="D228" t="s">
-        <v>44</v>
       </c>
       <c r="E228">
         <v>699760</v>
@@ -12057,14 +12058,14 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229">
+        <v>71</v>
+      </c>
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229" t="s">
         <v>107</v>
-      </c>
-      <c r="C229">
-        <v>71</v>
-      </c>
-      <c r="D229" t="s">
-        <v>44</v>
       </c>
       <c r="E229">
         <v>537960</v>
@@ -12089,14 +12090,14 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>71</v>
+      </c>
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" t="s">
         <v>265</v>
-      </c>
-      <c r="C230">
-        <v>71</v>
-      </c>
-      <c r="D230" t="s">
-        <v>44</v>
       </c>
       <c r="E230">
         <v>560000</v>
@@ -12121,14 +12122,14 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231">
+        <v>71</v>
+      </c>
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+      <c r="D231" t="s">
         <v>266</v>
-      </c>
-      <c r="C231">
-        <v>71</v>
-      </c>
-      <c r="D231" t="s">
-        <v>44</v>
       </c>
       <c r="E231">
         <v>747800</v>
@@ -12153,14 +12154,14 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232">
+        <v>71</v>
+      </c>
+      <c r="C232" t="s">
+        <v>44</v>
+      </c>
+      <c r="D232" t="s">
         <v>267</v>
-      </c>
-      <c r="C232">
-        <v>71</v>
-      </c>
-      <c r="D232" t="s">
-        <v>44</v>
       </c>
       <c r="E232">
         <v>440000</v>
@@ -12185,14 +12186,14 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233">
+        <v>71</v>
+      </c>
+      <c r="C233" t="s">
+        <v>44</v>
+      </c>
+      <c r="D233" t="s">
         <v>268</v>
-      </c>
-      <c r="C233">
-        <v>71</v>
-      </c>
-      <c r="D233" t="s">
-        <v>44</v>
       </c>
       <c r="E233">
         <v>552480</v>
@@ -12217,14 +12218,14 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234">
+        <v>71</v>
+      </c>
+      <c r="C234" t="s">
+        <v>44</v>
+      </c>
+      <c r="D234" t="s">
         <v>269</v>
-      </c>
-      <c r="C234">
-        <v>71</v>
-      </c>
-      <c r="D234" t="s">
-        <v>44</v>
       </c>
       <c r="E234">
         <v>429680</v>
@@ -12249,14 +12250,14 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235">
+        <v>71</v>
+      </c>
+      <c r="C235" t="s">
+        <v>44</v>
+      </c>
+      <c r="D235" t="s">
         <v>270</v>
-      </c>
-      <c r="C235">
-        <v>71</v>
-      </c>
-      <c r="D235" t="s">
-        <v>44</v>
       </c>
       <c r="E235">
         <v>512000</v>
@@ -12281,14 +12282,14 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>71</v>
+      </c>
+      <c r="C236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D236" t="s">
         <v>271</v>
-      </c>
-      <c r="C236">
-        <v>71</v>
-      </c>
-      <c r="D236" t="s">
-        <v>44</v>
       </c>
       <c r="E236">
         <v>460120</v>
@@ -12313,14 +12314,14 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237">
+        <v>71</v>
+      </c>
+      <c r="C237" t="s">
+        <v>44</v>
+      </c>
+      <c r="D237" t="s">
         <v>272</v>
-      </c>
-      <c r="C237">
-        <v>71</v>
-      </c>
-      <c r="D237" t="s">
-        <v>44</v>
       </c>
       <c r="E237">
         <v>704000</v>
@@ -12345,14 +12346,14 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238">
+        <v>73</v>
+      </c>
+      <c r="C238" t="s">
+        <v>45</v>
+      </c>
+      <c r="D238" t="s">
         <v>273</v>
-      </c>
-      <c r="C238">
-        <v>73</v>
-      </c>
-      <c r="D238" t="s">
-        <v>45</v>
       </c>
       <c r="E238">
         <v>732000</v>
@@ -12377,14 +12378,14 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239">
+        <v>73</v>
+      </c>
+      <c r="C239" t="s">
+        <v>45</v>
+      </c>
+      <c r="D239" t="s">
         <v>274</v>
-      </c>
-      <c r="C239">
-        <v>73</v>
-      </c>
-      <c r="D239" t="s">
-        <v>45</v>
       </c>
       <c r="E239">
         <v>600000</v>
@@ -12409,14 +12410,14 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240">
+        <v>73</v>
+      </c>
+      <c r="C240" t="s">
+        <v>45</v>
+      </c>
+      <c r="D240" t="s">
         <v>275</v>
-      </c>
-      <c r="C240">
-        <v>73</v>
-      </c>
-      <c r="D240" t="s">
-        <v>45</v>
       </c>
       <c r="E240">
         <v>428000</v>
@@ -12441,14 +12442,14 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241">
+        <v>73</v>
+      </c>
+      <c r="C241" t="s">
+        <v>45</v>
+      </c>
+      <c r="D241" t="s">
         <v>276</v>
-      </c>
-      <c r="C241">
-        <v>73</v>
-      </c>
-      <c r="D241" t="s">
-        <v>45</v>
       </c>
       <c r="E241">
         <v>500000</v>
@@ -12473,14 +12474,14 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242">
+        <v>73</v>
+      </c>
+      <c r="C242" t="s">
+        <v>45</v>
+      </c>
+      <c r="D242" t="s">
         <v>277</v>
-      </c>
-      <c r="C242">
-        <v>73</v>
-      </c>
-      <c r="D242" t="s">
-        <v>45</v>
       </c>
       <c r="E242">
         <v>500000</v>
@@ -12505,14 +12506,14 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243">
+        <v>73</v>
+      </c>
+      <c r="C243" t="s">
+        <v>45</v>
+      </c>
+      <c r="D243" t="s">
         <v>278</v>
-      </c>
-      <c r="C243">
-        <v>73</v>
-      </c>
-      <c r="D243" t="s">
-        <v>45</v>
       </c>
       <c r="E243">
         <v>480000</v>
@@ -12537,14 +12538,14 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244">
+        <v>73</v>
+      </c>
+      <c r="C244" t="s">
+        <v>45</v>
+      </c>
+      <c r="D244" t="s">
         <v>279</v>
-      </c>
-      <c r="C244">
-        <v>73</v>
-      </c>
-      <c r="D244" t="s">
-        <v>45</v>
       </c>
       <c r="E244">
         <v>560000</v>
@@ -12569,14 +12570,14 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245">
+        <v>73</v>
+      </c>
+      <c r="C245" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" t="s">
         <v>280</v>
-      </c>
-      <c r="C245">
-        <v>73</v>
-      </c>
-      <c r="D245" t="s">
-        <v>45</v>
       </c>
       <c r="E245">
         <v>900800</v>
@@ -12601,14 +12602,14 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246">
+        <v>76</v>
+      </c>
+      <c r="C246" t="s">
+        <v>46</v>
+      </c>
+      <c r="D246" t="s">
         <v>281</v>
-      </c>
-      <c r="C246">
-        <v>76</v>
-      </c>
-      <c r="D246" t="s">
-        <v>46</v>
       </c>
       <c r="E246">
         <v>720000</v>
@@ -12633,14 +12634,14 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247">
+        <v>76</v>
+      </c>
+      <c r="C247" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247" t="s">
         <v>282</v>
-      </c>
-      <c r="C247">
-        <v>76</v>
-      </c>
-      <c r="D247" t="s">
-        <v>46</v>
       </c>
       <c r="E247">
         <v>553320</v>
@@ -12665,14 +12666,14 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248">
+        <v>76</v>
+      </c>
+      <c r="C248" t="s">
+        <v>46</v>
+      </c>
+      <c r="D248" t="s">
         <v>283</v>
-      </c>
-      <c r="C248">
-        <v>76</v>
-      </c>
-      <c r="D248" t="s">
-        <v>46</v>
       </c>
       <c r="E248">
         <v>555560</v>
@@ -12697,14 +12698,14 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249">
+        <v>76</v>
+      </c>
+      <c r="C249" t="s">
+        <v>46</v>
+      </c>
+      <c r="D249" t="s">
         <v>284</v>
-      </c>
-      <c r="C249">
-        <v>76</v>
-      </c>
-      <c r="D249" t="s">
-        <v>46</v>
       </c>
       <c r="E249">
         <v>480000</v>
@@ -12729,14 +12730,14 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250">
+        <v>78</v>
+      </c>
+      <c r="C250" t="s">
+        <v>47</v>
+      </c>
+      <c r="D250" t="s">
         <v>285</v>
-      </c>
-      <c r="C250">
-        <v>78</v>
-      </c>
-      <c r="D250" t="s">
-        <v>47</v>
       </c>
       <c r="E250">
         <v>520000</v>
@@ -12761,14 +12762,14 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251">
+        <v>78</v>
+      </c>
+      <c r="C251" t="s">
+        <v>47</v>
+      </c>
+      <c r="D251" t="s">
         <v>286</v>
-      </c>
-      <c r="C251">
-        <v>78</v>
-      </c>
-      <c r="D251" t="s">
-        <v>47</v>
       </c>
       <c r="E251">
         <v>703560</v>
@@ -12793,14 +12794,14 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252">
+        <v>78</v>
+      </c>
+      <c r="C252" t="s">
+        <v>47</v>
+      </c>
+      <c r="D252" t="s">
         <v>287</v>
-      </c>
-      <c r="C252">
-        <v>78</v>
-      </c>
-      <c r="D252" t="s">
-        <v>47</v>
       </c>
       <c r="E252">
         <v>660000</v>
@@ -12825,14 +12826,14 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253">
+        <v>78</v>
+      </c>
+      <c r="C253" t="s">
+        <v>47</v>
+      </c>
+      <c r="D253" t="s">
         <v>288</v>
-      </c>
-      <c r="C253">
-        <v>78</v>
-      </c>
-      <c r="D253" t="s">
-        <v>47</v>
       </c>
       <c r="E253">
         <v>760000</v>
@@ -12857,14 +12858,14 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254">
+        <v>79</v>
+      </c>
+      <c r="C254" t="s">
+        <v>48</v>
+      </c>
+      <c r="D254" t="s">
         <v>239</v>
-      </c>
-      <c r="C254">
-        <v>79</v>
-      </c>
-      <c r="D254" t="s">
-        <v>48</v>
       </c>
       <c r="E254">
         <v>440000</v>
@@ -12889,14 +12890,14 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255">
+        <v>79</v>
+      </c>
+      <c r="C255" t="s">
+        <v>48</v>
+      </c>
+      <c r="D255" t="s">
         <v>289</v>
-      </c>
-      <c r="C255">
-        <v>79</v>
-      </c>
-      <c r="D255" t="s">
-        <v>48</v>
       </c>
       <c r="E255">
         <v>665000</v>
@@ -12921,14 +12922,14 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256">
+        <v>79</v>
+      </c>
+      <c r="C256" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" t="s">
         <v>290</v>
-      </c>
-      <c r="C256">
-        <v>79</v>
-      </c>
-      <c r="D256" t="s">
-        <v>48</v>
       </c>
       <c r="E256">
         <v>436000</v>
@@ -12953,14 +12954,14 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257">
+        <v>79</v>
+      </c>
+      <c r="C257" t="s">
+        <v>48</v>
+      </c>
+      <c r="D257" t="s">
         <v>291</v>
-      </c>
-      <c r="C257">
-        <v>79</v>
-      </c>
-      <c r="D257" t="s">
-        <v>48</v>
       </c>
       <c r="E257">
         <v>633200</v>
@@ -12985,14 +12986,14 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258">
+        <v>79</v>
+      </c>
+      <c r="C258" t="s">
+        <v>48</v>
+      </c>
+      <c r="D258" t="s">
         <v>292</v>
-      </c>
-      <c r="C258">
-        <v>79</v>
-      </c>
-      <c r="D258" t="s">
-        <v>48</v>
       </c>
       <c r="E258">
         <v>456000</v>
@@ -13017,14 +13018,14 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259">
+        <v>79</v>
+      </c>
+      <c r="C259" t="s">
+        <v>48</v>
+      </c>
+      <c r="D259" t="s">
         <v>293</v>
-      </c>
-      <c r="C259">
-        <v>79</v>
-      </c>
-      <c r="D259" t="s">
-        <v>48</v>
       </c>
       <c r="E259">
         <v>640000</v>
@@ -13049,14 +13050,14 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260">
+        <v>79</v>
+      </c>
+      <c r="C260" t="s">
+        <v>48</v>
+      </c>
+      <c r="D260" t="s">
         <v>294</v>
-      </c>
-      <c r="C260">
-        <v>79</v>
-      </c>
-      <c r="D260" t="s">
-        <v>48</v>
       </c>
       <c r="E260">
         <v>760000</v>
@@ -13081,14 +13082,14 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261">
+        <v>79</v>
+      </c>
+      <c r="C261" t="s">
+        <v>48</v>
+      </c>
+      <c r="D261" t="s">
         <v>295</v>
-      </c>
-      <c r="C261">
-        <v>79</v>
-      </c>
-      <c r="D261" t="s">
-        <v>48</v>
       </c>
       <c r="E261">
         <v>644000</v>
@@ -13113,14 +13114,14 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>81</v>
+      </c>
+      <c r="C262" t="s">
+        <v>49</v>
+      </c>
+      <c r="D262" t="s">
         <v>296</v>
-      </c>
-      <c r="C262">
-        <v>81</v>
-      </c>
-      <c r="D262" t="s">
-        <v>49</v>
       </c>
       <c r="E262">
         <v>936040</v>
@@ -13145,14 +13146,14 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263">
+        <v>81</v>
+      </c>
+      <c r="C263" t="s">
+        <v>49</v>
+      </c>
+      <c r="D263" t="s">
         <v>260</v>
-      </c>
-      <c r="C263">
-        <v>81</v>
-      </c>
-      <c r="D263" t="s">
-        <v>49</v>
       </c>
       <c r="E263">
         <v>797200</v>
@@ -13177,14 +13178,14 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264">
+        <v>81</v>
+      </c>
+      <c r="C264" t="s">
+        <v>49</v>
+      </c>
+      <c r="D264" t="s">
         <v>138</v>
-      </c>
-      <c r="C264">
-        <v>81</v>
-      </c>
-      <c r="D264" t="s">
-        <v>49</v>
       </c>
       <c r="E264">
         <v>680000</v>
@@ -13209,14 +13210,14 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265">
+        <v>81</v>
+      </c>
+      <c r="C265" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" t="s">
         <v>297</v>
-      </c>
-      <c r="C265">
-        <v>81</v>
-      </c>
-      <c r="D265" t="s">
-        <v>49</v>
       </c>
       <c r="E265">
         <v>640000</v>
@@ -13241,14 +13242,14 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266">
+        <v>81</v>
+      </c>
+      <c r="C266" t="s">
+        <v>49</v>
+      </c>
+      <c r="D266" t="s">
         <v>298</v>
-      </c>
-      <c r="C266">
-        <v>81</v>
-      </c>
-      <c r="D266" t="s">
-        <v>49</v>
       </c>
       <c r="E266">
         <v>727600</v>
@@ -13273,14 +13274,14 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267">
+        <v>81</v>
+      </c>
+      <c r="C267" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267" t="s">
         <v>299</v>
-      </c>
-      <c r="C267">
-        <v>81</v>
-      </c>
-      <c r="D267" t="s">
-        <v>49</v>
       </c>
       <c r="E267">
         <v>600000</v>
@@ -13305,14 +13306,14 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268">
+        <v>81</v>
+      </c>
+      <c r="C268" t="s">
+        <v>49</v>
+      </c>
+      <c r="D268" t="s">
         <v>300</v>
-      </c>
-      <c r="C268">
-        <v>81</v>
-      </c>
-      <c r="D268" t="s">
-        <v>49</v>
       </c>
       <c r="E268">
         <v>537600</v>
@@ -13337,14 +13338,14 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269">
+        <v>81</v>
+      </c>
+      <c r="C269" t="s">
+        <v>49</v>
+      </c>
+      <c r="D269" t="s">
         <v>301</v>
-      </c>
-      <c r="C269">
-        <v>81</v>
-      </c>
-      <c r="D269" t="s">
-        <v>49</v>
       </c>
       <c r="E269">
         <v>560000</v>
@@ -13369,14 +13370,14 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270">
+        <v>81</v>
+      </c>
+      <c r="C270" t="s">
+        <v>49</v>
+      </c>
+      <c r="D270" t="s">
         <v>302</v>
-      </c>
-      <c r="C270">
-        <v>81</v>
-      </c>
-      <c r="D270" t="s">
-        <v>49</v>
       </c>
       <c r="E270">
         <v>849960</v>
@@ -13401,14 +13402,14 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271">
+        <v>82</v>
+      </c>
+      <c r="C271" t="s">
+        <v>50</v>
+      </c>
+      <c r="D271" t="s">
         <v>303</v>
-      </c>
-      <c r="C271">
-        <v>82</v>
-      </c>
-      <c r="D271" t="s">
-        <v>50</v>
       </c>
       <c r="E271">
         <v>528000</v>
@@ -13433,14 +13434,14 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272">
+        <v>84</v>
+      </c>
+      <c r="C272" t="s">
+        <v>51</v>
+      </c>
+      <c r="D272" t="s">
         <v>304</v>
-      </c>
-      <c r="C272">
-        <v>84</v>
-      </c>
-      <c r="D272" t="s">
-        <v>51</v>
       </c>
       <c r="E272">
         <v>484000</v>
@@ -13465,14 +13466,14 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273">
+        <v>85</v>
+      </c>
+      <c r="C273" t="s">
+        <v>52</v>
+      </c>
+      <c r="D273" t="s">
         <v>305</v>
-      </c>
-      <c r="C273">
-        <v>85</v>
-      </c>
-      <c r="D273" t="s">
-        <v>52</v>
       </c>
       <c r="E273">
         <v>600000</v>
@@ -13497,14 +13498,14 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274">
+        <v>85</v>
+      </c>
+      <c r="C274" t="s">
+        <v>52</v>
+      </c>
+      <c r="D274" t="s">
         <v>306</v>
-      </c>
-      <c r="C274">
-        <v>85</v>
-      </c>
-      <c r="D274" t="s">
-        <v>52</v>
       </c>
       <c r="E274">
         <v>600000</v>
@@ -13529,14 +13530,14 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275">
+        <v>85</v>
+      </c>
+      <c r="C275" t="s">
+        <v>52</v>
+      </c>
+      <c r="D275" t="s">
         <v>307</v>
-      </c>
-      <c r="C275">
-        <v>85</v>
-      </c>
-      <c r="D275" t="s">
-        <v>52</v>
       </c>
       <c r="E275">
         <v>600000</v>
@@ -13561,14 +13562,14 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276">
+        <v>85</v>
+      </c>
+      <c r="C276" t="s">
+        <v>52</v>
+      </c>
+      <c r="D276" t="s">
         <v>109</v>
-      </c>
-      <c r="C276">
-        <v>85</v>
-      </c>
-      <c r="D276" t="s">
-        <v>52</v>
       </c>
       <c r="E276">
         <v>532000</v>
@@ -13593,14 +13594,14 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277">
+        <v>85</v>
+      </c>
+      <c r="C277" t="s">
+        <v>52</v>
+      </c>
+      <c r="D277" t="s">
         <v>308</v>
-      </c>
-      <c r="C277">
-        <v>85</v>
-      </c>
-      <c r="D277" t="s">
-        <v>52</v>
       </c>
       <c r="E277">
         <v>424000</v>
@@ -13625,14 +13626,14 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278">
+        <v>85</v>
+      </c>
+      <c r="C278" t="s">
+        <v>52</v>
+      </c>
+      <c r="D278" t="s">
         <v>309</v>
-      </c>
-      <c r="C278">
-        <v>85</v>
-      </c>
-      <c r="D278" t="s">
-        <v>52</v>
       </c>
       <c r="E278">
         <v>810800</v>
@@ -13657,14 +13658,14 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279">
+        <v>85</v>
+      </c>
+      <c r="C279" t="s">
+        <v>52</v>
+      </c>
+      <c r="D279" t="s">
         <v>310</v>
-      </c>
-      <c r="C279">
-        <v>85</v>
-      </c>
-      <c r="D279" t="s">
-        <v>52</v>
       </c>
       <c r="E279">
         <v>680000</v>
@@ -13689,14 +13690,14 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280">
+        <v>85</v>
+      </c>
+      <c r="C280" t="s">
+        <v>52</v>
+      </c>
+      <c r="D280" t="s">
         <v>107</v>
-      </c>
-      <c r="C280">
-        <v>85</v>
-      </c>
-      <c r="D280" t="s">
-        <v>52</v>
       </c>
       <c r="E280">
         <v>451680</v>
@@ -13721,14 +13722,14 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281">
+        <v>85</v>
+      </c>
+      <c r="C281" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" t="s">
         <v>311</v>
-      </c>
-      <c r="C281">
-        <v>85</v>
-      </c>
-      <c r="D281" t="s">
-        <v>52</v>
       </c>
       <c r="E281">
         <v>640000</v>
@@ -13753,14 +13754,14 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282">
+        <v>85</v>
+      </c>
+      <c r="C282" t="s">
+        <v>52</v>
+      </c>
+      <c r="D282" t="s">
         <v>166</v>
-      </c>
-      <c r="C282">
-        <v>85</v>
-      </c>
-      <c r="D282" t="s">
-        <v>52</v>
       </c>
       <c r="E282">
         <v>560000</v>
@@ -13785,14 +13786,14 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283">
+        <v>85</v>
+      </c>
+      <c r="C283" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" t="s">
         <v>312</v>
-      </c>
-      <c r="C283">
-        <v>85</v>
-      </c>
-      <c r="D283" t="s">
-        <v>52</v>
       </c>
       <c r="E283">
         <v>600000</v>
@@ -13817,14 +13818,14 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284">
+        <v>85</v>
+      </c>
+      <c r="C284" t="s">
+        <v>52</v>
+      </c>
+      <c r="D284" t="s">
         <v>313</v>
-      </c>
-      <c r="C284">
-        <v>85</v>
-      </c>
-      <c r="D284" t="s">
-        <v>52</v>
       </c>
       <c r="E284">
         <v>560000</v>
@@ -13849,14 +13850,14 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285">
+        <v>85</v>
+      </c>
+      <c r="C285" t="s">
+        <v>52</v>
+      </c>
+      <c r="D285" t="s">
         <v>176</v>
-      </c>
-      <c r="C285">
-        <v>85</v>
-      </c>
-      <c r="D285" t="s">
-        <v>52</v>
       </c>
       <c r="E285">
         <v>720000</v>
@@ -13881,14 +13882,14 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286">
+        <v>85</v>
+      </c>
+      <c r="C286" t="s">
+        <v>52</v>
+      </c>
+      <c r="D286" t="s">
         <v>314</v>
-      </c>
-      <c r="C286">
-        <v>85</v>
-      </c>
-      <c r="D286" t="s">
-        <v>52</v>
       </c>
       <c r="E286">
         <v>600000</v>
@@ -13913,14 +13914,14 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287">
+        <v>85</v>
+      </c>
+      <c r="C287" t="s">
+        <v>52</v>
+      </c>
+      <c r="D287" t="s">
         <v>315</v>
-      </c>
-      <c r="C287">
-        <v>85</v>
-      </c>
-      <c r="D287" t="s">
-        <v>52</v>
       </c>
       <c r="E287">
         <v>520000</v>
@@ -13945,14 +13946,14 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288">
+        <v>85</v>
+      </c>
+      <c r="C288" t="s">
+        <v>52</v>
+      </c>
+      <c r="D288" t="s">
         <v>260</v>
-      </c>
-      <c r="C288">
-        <v>85</v>
-      </c>
-      <c r="D288" t="s">
-        <v>52</v>
       </c>
       <c r="E288">
         <v>480000</v>
@@ -13977,14 +13978,14 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289">
+        <v>85</v>
+      </c>
+      <c r="C289" t="s">
+        <v>52</v>
+      </c>
+      <c r="D289" t="s">
         <v>109</v>
-      </c>
-      <c r="C289">
-        <v>85</v>
-      </c>
-      <c r="D289" t="s">
-        <v>52</v>
       </c>
       <c r="E289">
         <v>480000</v>
@@ -14009,14 +14010,14 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290">
+        <v>86</v>
+      </c>
+      <c r="C290" t="s">
+        <v>53</v>
+      </c>
+      <c r="D290" t="s">
         <v>95</v>
-      </c>
-      <c r="C290">
-        <v>86</v>
-      </c>
-      <c r="D290" t="s">
-        <v>53</v>
       </c>
       <c r="E290">
         <v>920000</v>
@@ -14041,14 +14042,14 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291">
+        <v>86</v>
+      </c>
+      <c r="C291" t="s">
+        <v>53</v>
+      </c>
+      <c r="D291" t="s">
         <v>316</v>
-      </c>
-      <c r="C291">
-        <v>86</v>
-      </c>
-      <c r="D291" t="s">
-        <v>53</v>
       </c>
       <c r="E291">
         <v>720000</v>
@@ -14073,14 +14074,14 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292">
+        <v>86</v>
+      </c>
+      <c r="C292" t="s">
+        <v>53</v>
+      </c>
+      <c r="D292" t="s">
         <v>317</v>
-      </c>
-      <c r="C292">
-        <v>86</v>
-      </c>
-      <c r="D292" t="s">
-        <v>53</v>
       </c>
       <c r="E292">
         <v>580000</v>
@@ -14105,14 +14106,14 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293">
+        <v>86</v>
+      </c>
+      <c r="C293" t="s">
+        <v>53</v>
+      </c>
+      <c r="D293" t="s">
         <v>318</v>
-      </c>
-      <c r="C293">
-        <v>86</v>
-      </c>
-      <c r="D293" t="s">
-        <v>53</v>
       </c>
       <c r="E293">
         <v>960000</v>
@@ -14137,14 +14138,14 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294">
+        <v>86</v>
+      </c>
+      <c r="C294" t="s">
+        <v>53</v>
+      </c>
+      <c r="D294" t="s">
         <v>319</v>
-      </c>
-      <c r="C294">
-        <v>86</v>
-      </c>
-      <c r="D294" t="s">
-        <v>53</v>
       </c>
       <c r="E294">
         <v>465840</v>
@@ -14169,14 +14170,14 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295">
+        <v>86</v>
+      </c>
+      <c r="C295" t="s">
+        <v>53</v>
+      </c>
+      <c r="D295" t="s">
         <v>72</v>
-      </c>
-      <c r="C295">
-        <v>86</v>
-      </c>
-      <c r="D295" t="s">
-        <v>53</v>
       </c>
       <c r="E295">
         <v>446400</v>
@@ -14201,14 +14202,14 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296">
+        <v>86</v>
+      </c>
+      <c r="C296" t="s">
+        <v>53</v>
+      </c>
+      <c r="D296" t="s">
         <v>320</v>
-      </c>
-      <c r="C296">
-        <v>86</v>
-      </c>
-      <c r="D296" t="s">
-        <v>53</v>
       </c>
       <c r="E296">
         <v>640000</v>
@@ -14233,14 +14234,14 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297">
+        <v>86</v>
+      </c>
+      <c r="C297" t="s">
+        <v>53</v>
+      </c>
+      <c r="D297" t="s">
         <v>321</v>
-      </c>
-      <c r="C297">
-        <v>86</v>
-      </c>
-      <c r="D297" t="s">
-        <v>53</v>
       </c>
       <c r="E297">
         <v>640000</v>
@@ -14265,14 +14266,14 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298">
+        <v>88</v>
+      </c>
+      <c r="C298" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" t="s">
         <v>300</v>
-      </c>
-      <c r="C298">
-        <v>88</v>
-      </c>
-      <c r="D298" t="s">
-        <v>54</v>
       </c>
       <c r="E298">
         <v>600000</v>
@@ -14297,14 +14298,14 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299">
+        <v>88</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" t="s">
         <v>322</v>
-      </c>
-      <c r="C299">
-        <v>88</v>
-      </c>
-      <c r="D299" t="s">
-        <v>54</v>
       </c>
       <c r="E299">
         <v>560000</v>
@@ -14329,14 +14330,14 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300">
+        <v>88</v>
+      </c>
+      <c r="C300" t="s">
+        <v>54</v>
+      </c>
+      <c r="D300" t="s">
         <v>129</v>
-      </c>
-      <c r="C300">
-        <v>88</v>
-      </c>
-      <c r="D300" t="s">
-        <v>54</v>
       </c>
       <c r="E300">
         <v>800000</v>
@@ -14361,14 +14362,14 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301">
+        <v>88</v>
+      </c>
+      <c r="C301" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" t="s">
         <v>107</v>
-      </c>
-      <c r="C301">
-        <v>88</v>
-      </c>
-      <c r="D301" t="s">
-        <v>54</v>
       </c>
       <c r="E301">
         <v>600000</v>
@@ -14393,14 +14394,14 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302">
+        <v>88</v>
+      </c>
+      <c r="C302" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302" t="s">
         <v>323</v>
-      </c>
-      <c r="C302">
-        <v>88</v>
-      </c>
-      <c r="D302" t="s">
-        <v>54</v>
       </c>
       <c r="E302">
         <v>600000</v>
@@ -14425,14 +14426,14 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303">
+        <v>88</v>
+      </c>
+      <c r="C303" t="s">
+        <v>54</v>
+      </c>
+      <c r="D303" t="s">
         <v>323</v>
-      </c>
-      <c r="C303">
-        <v>88</v>
-      </c>
-      <c r="D303" t="s">
-        <v>54</v>
       </c>
       <c r="E303">
         <v>440000</v>
@@ -14457,14 +14458,14 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304">
+        <v>88</v>
+      </c>
+      <c r="C304" t="s">
+        <v>54</v>
+      </c>
+      <c r="D304" t="s">
         <v>324</v>
-      </c>
-      <c r="C304">
-        <v>88</v>
-      </c>
-      <c r="D304" t="s">
-        <v>54</v>
       </c>
       <c r="E304">
         <v>600000</v>
@@ -14489,14 +14490,14 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305">
+        <v>88</v>
+      </c>
+      <c r="C305" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" t="s">
         <v>325</v>
-      </c>
-      <c r="C305">
-        <v>88</v>
-      </c>
-      <c r="D305" t="s">
-        <v>54</v>
       </c>
       <c r="E305">
         <v>706920</v>
@@ -14521,14 +14522,14 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306">
+        <v>88</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" t="s">
         <v>326</v>
-      </c>
-      <c r="C306">
-        <v>88</v>
-      </c>
-      <c r="D306" t="s">
-        <v>54</v>
       </c>
       <c r="E306">
         <v>688000</v>
@@ -14553,14 +14554,14 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307">
+        <v>88</v>
+      </c>
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" t="s">
         <v>327</v>
-      </c>
-      <c r="C307">
-        <v>88</v>
-      </c>
-      <c r="D307" t="s">
-        <v>54</v>
       </c>
       <c r="E307">
         <v>412000</v>
@@ -14585,14 +14586,14 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308">
+        <v>89</v>
+      </c>
+      <c r="C308" t="s">
+        <v>55</v>
+      </c>
+      <c r="D308" t="s">
         <v>328</v>
-      </c>
-      <c r="C308">
-        <v>89</v>
-      </c>
-      <c r="D308" t="s">
-        <v>55</v>
       </c>
       <c r="E308">
         <v>600000</v>
@@ -14617,14 +14618,14 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309">
+        <v>89</v>
+      </c>
+      <c r="C309" t="s">
+        <v>55</v>
+      </c>
+      <c r="D309" t="s">
         <v>329</v>
-      </c>
-      <c r="C309">
-        <v>89</v>
-      </c>
-      <c r="D309" t="s">
-        <v>55</v>
       </c>
       <c r="E309">
         <v>480000</v>
@@ -14649,14 +14650,14 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310">
+        <v>89</v>
+      </c>
+      <c r="C310" t="s">
+        <v>55</v>
+      </c>
+      <c r="D310" t="s">
         <v>330</v>
-      </c>
-      <c r="C310">
-        <v>89</v>
-      </c>
-      <c r="D310" t="s">
-        <v>55</v>
       </c>
       <c r="E310">
         <v>880000</v>
@@ -14681,14 +14682,14 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311">
+        <v>89</v>
+      </c>
+      <c r="C311" t="s">
+        <v>55</v>
+      </c>
+      <c r="D311" t="s">
         <v>331</v>
-      </c>
-      <c r="C311">
-        <v>89</v>
-      </c>
-      <c r="D311" t="s">
-        <v>55</v>
       </c>
       <c r="E311">
         <v>716000</v>
@@ -14713,14 +14714,14 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312">
+        <v>89</v>
+      </c>
+      <c r="C312" t="s">
+        <v>55</v>
+      </c>
+      <c r="D312" t="s">
         <v>332</v>
-      </c>
-      <c r="C312">
-        <v>89</v>
-      </c>
-      <c r="D312" t="s">
-        <v>55</v>
       </c>
       <c r="E312">
         <v>600000</v>
@@ -14745,14 +14746,14 @@
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313">
+        <v>89</v>
+      </c>
+      <c r="C313" t="s">
+        <v>55</v>
+      </c>
+      <c r="D313" t="s">
         <v>333</v>
-      </c>
-      <c r="C313">
-        <v>89</v>
-      </c>
-      <c r="D313" t="s">
-        <v>55</v>
       </c>
       <c r="E313">
         <v>600000</v>
@@ -14777,14 +14778,14 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314">
+        <v>89</v>
+      </c>
+      <c r="C314" t="s">
+        <v>55</v>
+      </c>
+      <c r="D314" t="s">
         <v>334</v>
-      </c>
-      <c r="C314">
-        <v>89</v>
-      </c>
-      <c r="D314" t="s">
-        <v>55</v>
       </c>
       <c r="E314">
         <v>923960</v>
@@ -14809,14 +14810,14 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315">
+        <v>89</v>
+      </c>
+      <c r="C315" t="s">
+        <v>55</v>
+      </c>
+      <c r="D315" t="s">
         <v>335</v>
-      </c>
-      <c r="C315">
-        <v>89</v>
-      </c>
-      <c r="D315" t="s">
-        <v>55</v>
       </c>
       <c r="E315">
         <v>417640</v>
@@ -14841,14 +14842,14 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316">
+        <v>89</v>
+      </c>
+      <c r="C316" t="s">
+        <v>55</v>
+      </c>
+      <c r="D316" t="s">
         <v>336</v>
-      </c>
-      <c r="C316">
-        <v>89</v>
-      </c>
-      <c r="D316" t="s">
-        <v>55</v>
       </c>
       <c r="E316">
         <v>563400</v>
@@ -14873,14 +14874,14 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317">
+        <v>89</v>
+      </c>
+      <c r="C317" t="s">
+        <v>55</v>
+      </c>
+      <c r="D317" t="s">
         <v>337</v>
-      </c>
-      <c r="C317">
-        <v>89</v>
-      </c>
-      <c r="D317" t="s">
-        <v>55</v>
       </c>
       <c r="E317">
         <v>600000</v>
@@ -14905,14 +14906,14 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318">
+        <v>90</v>
+      </c>
+      <c r="C318" t="s">
+        <v>56</v>
+      </c>
+      <c r="D318" t="s">
         <v>338</v>
-      </c>
-      <c r="C318">
-        <v>90</v>
-      </c>
-      <c r="D318" t="s">
-        <v>56</v>
       </c>
       <c r="E318">
         <v>440000</v>
@@ -14937,14 +14938,14 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319">
+        <v>90</v>
+      </c>
+      <c r="C319" t="s">
+        <v>56</v>
+      </c>
+      <c r="D319" t="s">
         <v>339</v>
-      </c>
-      <c r="C319">
-        <v>90</v>
-      </c>
-      <c r="D319" t="s">
-        <v>56</v>
       </c>
       <c r="E319">
         <v>680000</v>
@@ -14969,14 +14970,14 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320">
+        <v>90</v>
+      </c>
+      <c r="C320" t="s">
+        <v>56</v>
+      </c>
+      <c r="D320" t="s">
         <v>340</v>
-      </c>
-      <c r="C320">
-        <v>90</v>
-      </c>
-      <c r="D320" t="s">
-        <v>56</v>
       </c>
       <c r="E320">
         <v>800000</v>
@@ -15001,14 +15002,14 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321">
+        <v>90</v>
+      </c>
+      <c r="C321" t="s">
+        <v>56</v>
+      </c>
+      <c r="D321" t="s">
         <v>341</v>
-      </c>
-      <c r="C321">
-        <v>90</v>
-      </c>
-      <c r="D321" t="s">
-        <v>56</v>
       </c>
       <c r="E321">
         <v>936000</v>
@@ -15033,14 +15034,14 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322">
+        <v>90</v>
+      </c>
+      <c r="C322" t="s">
+        <v>56</v>
+      </c>
+      <c r="D322" t="s">
         <v>342</v>
-      </c>
-      <c r="C322">
-        <v>90</v>
-      </c>
-      <c r="D322" t="s">
-        <v>56</v>
       </c>
       <c r="E322">
         <v>549040</v>
@@ -15065,14 +15066,14 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323">
+        <v>90</v>
+      </c>
+      <c r="C323" t="s">
+        <v>56</v>
+      </c>
+      <c r="D323" t="s">
         <v>280</v>
-      </c>
-      <c r="C323">
-        <v>90</v>
-      </c>
-      <c r="D323" t="s">
-        <v>56</v>
       </c>
       <c r="E323">
         <v>600000</v>
@@ -15097,14 +15098,14 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324">
+        <v>90</v>
+      </c>
+      <c r="C324" t="s">
+        <v>56</v>
+      </c>
+      <c r="D324" t="s">
         <v>343</v>
-      </c>
-      <c r="C324">
-        <v>90</v>
-      </c>
-      <c r="D324" t="s">
-        <v>56</v>
       </c>
       <c r="E324">
         <v>413080</v>
@@ -15129,14 +15130,14 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325">
+        <v>90</v>
+      </c>
+      <c r="C325" t="s">
+        <v>56</v>
+      </c>
+      <c r="D325" t="s">
         <v>82</v>
-      </c>
-      <c r="C325">
-        <v>90</v>
-      </c>
-      <c r="D325" t="s">
-        <v>56</v>
       </c>
       <c r="E325">
         <v>616000</v>
@@ -15161,14 +15162,14 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326">
+        <v>90</v>
+      </c>
+      <c r="C326" t="s">
+        <v>56</v>
+      </c>
+      <c r="D326" t="s">
         <v>344</v>
-      </c>
-      <c r="C326">
-        <v>90</v>
-      </c>
-      <c r="D326" t="s">
-        <v>56</v>
       </c>
       <c r="E326">
         <v>901400</v>
@@ -15193,14 +15194,14 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327">
+        <v>90</v>
+      </c>
+      <c r="C327" t="s">
+        <v>56</v>
+      </c>
+      <c r="D327" t="s">
         <v>345</v>
-      </c>
-      <c r="C327">
-        <v>90</v>
-      </c>
-      <c r="D327" t="s">
-        <v>56</v>
       </c>
       <c r="E327">
         <v>493200</v>
@@ -15225,14 +15226,14 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328">
+        <v>90</v>
+      </c>
+      <c r="C328" t="s">
+        <v>56</v>
+      </c>
+      <c r="D328" t="s">
         <v>346</v>
-      </c>
-      <c r="C328">
-        <v>90</v>
-      </c>
-      <c r="D328" t="s">
-        <v>56</v>
       </c>
       <c r="E328">
         <v>600000</v>
@@ -15257,14 +15258,14 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329">
+        <v>90</v>
+      </c>
+      <c r="C329" t="s">
+        <v>56</v>
+      </c>
+      <c r="D329" t="s">
         <v>347</v>
-      </c>
-      <c r="C329">
-        <v>90</v>
-      </c>
-      <c r="D329" t="s">
-        <v>56</v>
       </c>
       <c r="E329">
         <v>460000</v>
@@ -15289,14 +15290,14 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330">
+        <v>90</v>
+      </c>
+      <c r="C330" t="s">
+        <v>56</v>
+      </c>
+      <c r="D330" t="s">
         <v>348</v>
-      </c>
-      <c r="C330">
-        <v>90</v>
-      </c>
-      <c r="D330" t="s">
-        <v>56</v>
       </c>
       <c r="E330">
         <v>420000</v>
@@ -15321,14 +15322,14 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331">
+        <v>90</v>
+      </c>
+      <c r="C331" t="s">
+        <v>56</v>
+      </c>
+      <c r="D331" t="s">
         <v>323</v>
-      </c>
-      <c r="C331">
-        <v>90</v>
-      </c>
-      <c r="D331" t="s">
-        <v>56</v>
       </c>
       <c r="E331">
         <v>480000</v>
@@ -15353,14 +15354,14 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332">
+        <v>91</v>
+      </c>
+      <c r="C332" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332" t="s">
         <v>349</v>
-      </c>
-      <c r="C332">
-        <v>91</v>
-      </c>
-      <c r="D332" t="s">
-        <v>57</v>
       </c>
       <c r="E332">
         <v>800000</v>
@@ -15385,14 +15386,14 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333">
+        <v>91</v>
+      </c>
+      <c r="C333" t="s">
+        <v>57</v>
+      </c>
+      <c r="D333" t="s">
         <v>350</v>
-      </c>
-      <c r="C333">
-        <v>91</v>
-      </c>
-      <c r="D333" t="s">
-        <v>57</v>
       </c>
       <c r="E333">
         <v>800000</v>
@@ -15417,14 +15418,14 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334">
+        <v>91</v>
+      </c>
+      <c r="C334" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" t="s">
         <v>351</v>
-      </c>
-      <c r="C334">
-        <v>91</v>
-      </c>
-      <c r="D334" t="s">
-        <v>57</v>
       </c>
       <c r="E334">
         <v>600000</v>
@@ -15449,14 +15450,14 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335">
+        <v>91</v>
+      </c>
+      <c r="C335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" t="s">
         <v>352</v>
-      </c>
-      <c r="C335">
-        <v>91</v>
-      </c>
-      <c r="D335" t="s">
-        <v>57</v>
       </c>
       <c r="E335">
         <v>480000</v>
@@ -15481,14 +15482,14 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336">
+        <v>91</v>
+      </c>
+      <c r="C336" t="s">
+        <v>57</v>
+      </c>
+      <c r="D336" t="s">
         <v>353</v>
-      </c>
-      <c r="C336">
-        <v>91</v>
-      </c>
-      <c r="D336" t="s">
-        <v>57</v>
       </c>
       <c r="E336">
         <v>800000</v>
@@ -15513,14 +15514,14 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337">
+        <v>91</v>
+      </c>
+      <c r="C337" t="s">
+        <v>57</v>
+      </c>
+      <c r="D337" t="s">
         <v>354</v>
-      </c>
-      <c r="C337">
-        <v>91</v>
-      </c>
-      <c r="D337" t="s">
-        <v>57</v>
       </c>
       <c r="E337">
         <v>560000</v>
@@ -15545,14 +15546,14 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338">
+        <v>91</v>
+      </c>
+      <c r="C338" t="s">
+        <v>57</v>
+      </c>
+      <c r="D338" t="s">
         <v>355</v>
-      </c>
-      <c r="C338">
-        <v>91</v>
-      </c>
-      <c r="D338" t="s">
-        <v>57</v>
       </c>
       <c r="E338">
         <v>600000</v>
@@ -15577,14 +15578,14 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339">
+        <v>91</v>
+      </c>
+      <c r="C339" t="s">
+        <v>57</v>
+      </c>
+      <c r="D339" t="s">
         <v>151</v>
-      </c>
-      <c r="C339">
-        <v>91</v>
-      </c>
-      <c r="D339" t="s">
-        <v>57</v>
       </c>
       <c r="E339">
         <v>560000</v>
@@ -15609,14 +15610,14 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340">
+        <v>91</v>
+      </c>
+      <c r="C340" t="s">
+        <v>57</v>
+      </c>
+      <c r="D340" t="s">
         <v>356</v>
-      </c>
-      <c r="C340">
-        <v>91</v>
-      </c>
-      <c r="D340" t="s">
-        <v>57</v>
       </c>
       <c r="E340">
         <v>440000</v>
@@ -15641,14 +15642,14 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341">
+        <v>91</v>
+      </c>
+      <c r="C341" t="s">
+        <v>57</v>
+      </c>
+      <c r="D341" t="s">
         <v>84</v>
-      </c>
-      <c r="C341">
-        <v>91</v>
-      </c>
-      <c r="D341" t="s">
-        <v>57</v>
       </c>
       <c r="E341">
         <v>460000</v>
@@ -15673,14 +15674,14 @@
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342">
+        <v>91</v>
+      </c>
+      <c r="C342" t="s">
+        <v>57</v>
+      </c>
+      <c r="D342" t="s">
         <v>357</v>
-      </c>
-      <c r="C342">
-        <v>91</v>
-      </c>
-      <c r="D342" t="s">
-        <v>57</v>
       </c>
       <c r="E342">
         <v>560000</v>
@@ -15705,14 +15706,14 @@
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343">
+        <v>91</v>
+      </c>
+      <c r="C343" t="s">
+        <v>57</v>
+      </c>
+      <c r="D343" t="s">
         <v>254</v>
-      </c>
-      <c r="C343">
-        <v>91</v>
-      </c>
-      <c r="D343" t="s">
-        <v>57</v>
       </c>
       <c r="E343">
         <v>699320</v>
@@ -15737,14 +15738,14 @@
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344">
+        <v>91</v>
+      </c>
+      <c r="C344" t="s">
+        <v>57</v>
+      </c>
+      <c r="D344" t="s">
         <v>358</v>
-      </c>
-      <c r="C344">
-        <v>91</v>
-      </c>
-      <c r="D344" t="s">
-        <v>57</v>
       </c>
       <c r="E344">
         <v>630200</v>
@@ -15769,14 +15770,14 @@
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345">
+        <v>91</v>
+      </c>
+      <c r="C345" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" t="s">
         <v>359</v>
-      </c>
-      <c r="C345">
-        <v>91</v>
-      </c>
-      <c r="D345" t="s">
-        <v>57</v>
       </c>
       <c r="E345">
         <v>600000</v>
@@ -15801,14 +15802,14 @@
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346">
+        <v>91</v>
+      </c>
+      <c r="C346" t="s">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
         <v>360</v>
-      </c>
-      <c r="C346">
-        <v>91</v>
-      </c>
-      <c r="D346" t="s">
-        <v>57</v>
       </c>
       <c r="E346">
         <v>480000</v>
@@ -15833,14 +15834,14 @@
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347">
+        <v>91</v>
+      </c>
+      <c r="C347" t="s">
+        <v>57</v>
+      </c>
+      <c r="D347" t="s">
         <v>346</v>
-      </c>
-      <c r="C347">
-        <v>91</v>
-      </c>
-      <c r="D347" t="s">
-        <v>57</v>
       </c>
       <c r="E347">
         <v>820720</v>
@@ -15865,14 +15866,14 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348">
+        <v>91</v>
+      </c>
+      <c r="C348" t="s">
+        <v>57</v>
+      </c>
+      <c r="D348" t="s">
         <v>361</v>
-      </c>
-      <c r="C348">
-        <v>91</v>
-      </c>
-      <c r="D348" t="s">
-        <v>57</v>
       </c>
       <c r="E348">
         <v>600000</v>
@@ -15897,14 +15898,14 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349">
+        <v>91</v>
+      </c>
+      <c r="C349" t="s">
+        <v>57</v>
+      </c>
+      <c r="D349" t="s">
         <v>83</v>
-      </c>
-      <c r="C349">
-        <v>91</v>
-      </c>
-      <c r="D349" t="s">
-        <v>57</v>
       </c>
       <c r="E349">
         <v>440000</v>
@@ -15929,14 +15930,14 @@
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350">
+        <v>91</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" t="s">
         <v>362</v>
-      </c>
-      <c r="C350">
-        <v>91</v>
-      </c>
-      <c r="D350" t="s">
-        <v>57</v>
       </c>
       <c r="E350">
         <v>480000</v>
@@ -15961,14 +15962,14 @@
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351">
+        <v>91</v>
+      </c>
+      <c r="C351" t="s">
+        <v>57</v>
+      </c>
+      <c r="D351" t="s">
         <v>363</v>
-      </c>
-      <c r="C351">
-        <v>91</v>
-      </c>
-      <c r="D351" t="s">
-        <v>57</v>
       </c>
       <c r="E351">
         <v>600000</v>
@@ -15993,14 +15994,14 @@
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352">
+        <v>91</v>
+      </c>
+      <c r="C352" t="s">
+        <v>57</v>
+      </c>
+      <c r="D352" t="s">
         <v>364</v>
-      </c>
-      <c r="C352">
-        <v>91</v>
-      </c>
-      <c r="D352" t="s">
-        <v>57</v>
       </c>
       <c r="E352">
         <v>480000</v>
@@ -16025,14 +16026,14 @@
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353">
+        <v>91</v>
+      </c>
+      <c r="C353" t="s">
+        <v>57</v>
+      </c>
+      <c r="D353" t="s">
         <v>365</v>
-      </c>
-      <c r="C353">
-        <v>91</v>
-      </c>
-      <c r="D353" t="s">
-        <v>57</v>
       </c>
       <c r="E353">
         <v>680000</v>
@@ -16057,14 +16058,14 @@
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354">
+        <v>92</v>
+      </c>
+      <c r="C354" t="s">
+        <v>58</v>
+      </c>
+      <c r="D354" t="s">
         <v>366</v>
-      </c>
-      <c r="C354">
-        <v>92</v>
-      </c>
-      <c r="D354" t="s">
-        <v>58</v>
       </c>
       <c r="E354">
         <v>464000</v>
@@ -16089,14 +16090,14 @@
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355">
+        <v>92</v>
+      </c>
+      <c r="C355" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" t="s">
         <v>266</v>
-      </c>
-      <c r="C355">
-        <v>92</v>
-      </c>
-      <c r="D355" t="s">
-        <v>58</v>
       </c>
       <c r="E355">
         <v>480000</v>
@@ -16121,14 +16122,14 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356">
+        <v>92</v>
+      </c>
+      <c r="C356" t="s">
+        <v>58</v>
+      </c>
+      <c r="D356" t="s">
         <v>165</v>
-      </c>
-      <c r="C356">
-        <v>92</v>
-      </c>
-      <c r="D356" t="s">
-        <v>58</v>
       </c>
       <c r="E356">
         <v>760000</v>
@@ -16153,14 +16154,14 @@
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357">
+        <v>92</v>
+      </c>
+      <c r="C357" t="s">
+        <v>58</v>
+      </c>
+      <c r="D357" t="s">
         <v>367</v>
-      </c>
-      <c r="C357">
-        <v>92</v>
-      </c>
-      <c r="D357" t="s">
-        <v>58</v>
       </c>
       <c r="E357">
         <v>460000</v>
@@ -16185,14 +16186,14 @@
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358">
+        <v>92</v>
+      </c>
+      <c r="C358" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" t="s">
         <v>368</v>
-      </c>
-      <c r="C358">
-        <v>92</v>
-      </c>
-      <c r="D358" t="s">
-        <v>58</v>
       </c>
       <c r="E358">
         <v>480000</v>
@@ -16217,14 +16218,14 @@
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359">
+        <v>92</v>
+      </c>
+      <c r="C359" t="s">
+        <v>58</v>
+      </c>
+      <c r="D359" t="s">
         <v>223</v>
-      </c>
-      <c r="C359">
-        <v>92</v>
-      </c>
-      <c r="D359" t="s">
-        <v>58</v>
       </c>
       <c r="E359">
         <v>800000</v>
@@ -16249,14 +16250,14 @@
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360">
+        <v>92</v>
+      </c>
+      <c r="C360" t="s">
+        <v>58</v>
+      </c>
+      <c r="D360" s="1">
         <v>43551</v>
-      </c>
-      <c r="C360">
-        <v>92</v>
-      </c>
-      <c r="D360" t="s">
-        <v>58</v>
       </c>
       <c r="E360">
         <v>480000</v>
@@ -16281,14 +16282,14 @@
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361">
+        <v>92</v>
+      </c>
+      <c r="C361" t="s">
+        <v>58</v>
+      </c>
+      <c r="D361" t="s">
         <v>369</v>
-      </c>
-      <c r="C361">
-        <v>92</v>
-      </c>
-      <c r="D361" t="s">
-        <v>58</v>
       </c>
       <c r="E361">
         <v>409760</v>
@@ -16313,14 +16314,14 @@
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362">
+        <v>92</v>
+      </c>
+      <c r="C362" t="s">
+        <v>58</v>
+      </c>
+      <c r="D362" t="s">
         <v>125</v>
-      </c>
-      <c r="C362">
-        <v>92</v>
-      </c>
-      <c r="D362" t="s">
-        <v>58</v>
       </c>
       <c r="E362">
         <v>596000</v>
@@ -16345,14 +16346,14 @@
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363">
+        <v>94</v>
+      </c>
+      <c r="C363" t="s">
+        <v>59</v>
+      </c>
+      <c r="D363" t="s">
         <v>370</v>
-      </c>
-      <c r="C363">
-        <v>94</v>
-      </c>
-      <c r="D363" t="s">
-        <v>59</v>
       </c>
       <c r="E363">
         <v>440000</v>
@@ -16377,14 +16378,14 @@
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364">
+        <v>94</v>
+      </c>
+      <c r="C364" t="s">
+        <v>59</v>
+      </c>
+      <c r="D364" t="s">
         <v>371</v>
-      </c>
-      <c r="C364">
-        <v>94</v>
-      </c>
-      <c r="D364" t="s">
-        <v>59</v>
       </c>
       <c r="E364">
         <v>520000</v>
@@ -16409,14 +16410,14 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365">
+        <v>94</v>
+      </c>
+      <c r="C365" t="s">
+        <v>59</v>
+      </c>
+      <c r="D365" t="s">
         <v>372</v>
-      </c>
-      <c r="C365">
-        <v>94</v>
-      </c>
-      <c r="D365" t="s">
-        <v>59</v>
       </c>
       <c r="E365">
         <v>440000</v>
@@ -16441,14 +16442,14 @@
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366">
+        <v>94</v>
+      </c>
+      <c r="C366" t="s">
+        <v>59</v>
+      </c>
+      <c r="D366" t="s">
         <v>373</v>
-      </c>
-      <c r="C366">
-        <v>94</v>
-      </c>
-      <c r="D366" t="s">
-        <v>59</v>
       </c>
       <c r="E366">
         <v>720000</v>
@@ -16473,14 +16474,14 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367">
+        <v>94</v>
+      </c>
+      <c r="C367" t="s">
+        <v>59</v>
+      </c>
+      <c r="D367" t="s">
         <v>374</v>
-      </c>
-      <c r="C367">
-        <v>94</v>
-      </c>
-      <c r="D367" t="s">
-        <v>59</v>
       </c>
       <c r="E367">
         <v>480000</v>
@@ -16505,14 +16506,14 @@
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368">
+        <v>94</v>
+      </c>
+      <c r="C368" t="s">
+        <v>59</v>
+      </c>
+      <c r="D368" t="s">
         <v>375</v>
-      </c>
-      <c r="C368">
-        <v>94</v>
-      </c>
-      <c r="D368" t="s">
-        <v>59</v>
       </c>
       <c r="E368">
         <v>852000</v>
@@ -16537,14 +16538,14 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369">
+        <v>94</v>
+      </c>
+      <c r="C369" t="s">
+        <v>59</v>
+      </c>
+      <c r="D369" t="s">
         <v>276</v>
-      </c>
-      <c r="C369">
-        <v>94</v>
-      </c>
-      <c r="D369" t="s">
-        <v>59</v>
       </c>
       <c r="E369">
         <v>772000</v>
@@ -16569,14 +16570,14 @@
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370">
+        <v>95</v>
+      </c>
+      <c r="C370" t="s">
+        <v>60</v>
+      </c>
+      <c r="D370" t="s">
         <v>376</v>
-      </c>
-      <c r="C370">
-        <v>95</v>
-      </c>
-      <c r="D370" t="s">
-        <v>60</v>
       </c>
       <c r="E370">
         <v>560840</v>
@@ -16601,14 +16602,14 @@
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371">
+        <v>95</v>
+      </c>
+      <c r="C371" t="s">
+        <v>60</v>
+      </c>
+      <c r="D371" t="s">
         <v>377</v>
-      </c>
-      <c r="C371">
-        <v>95</v>
-      </c>
-      <c r="D371" t="s">
-        <v>60</v>
       </c>
       <c r="E371">
         <v>800000</v>
@@ -16633,14 +16634,14 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372">
+        <v>95</v>
+      </c>
+      <c r="C372" t="s">
+        <v>60</v>
+      </c>
+      <c r="D372" s="1">
         <v>45172</v>
-      </c>
-      <c r="C372">
-        <v>95</v>
-      </c>
-      <c r="D372" t="s">
-        <v>60</v>
       </c>
       <c r="E372">
         <v>484000</v>
@@ -16665,14 +16666,14 @@
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373">
+        <v>96</v>
+      </c>
+      <c r="C373" t="s">
+        <v>61</v>
+      </c>
+      <c r="D373" t="s">
         <v>378</v>
-      </c>
-      <c r="C373">
-        <v>96</v>
-      </c>
-      <c r="D373" t="s">
-        <v>61</v>
       </c>
       <c r="E373">
         <v>600000</v>
@@ -16697,14 +16698,14 @@
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374">
+        <v>96</v>
+      </c>
+      <c r="C374" t="s">
+        <v>61</v>
+      </c>
+      <c r="D374" t="s">
         <v>123</v>
-      </c>
-      <c r="C374">
-        <v>96</v>
-      </c>
-      <c r="D374" t="s">
-        <v>61</v>
       </c>
       <c r="E374">
         <v>480000</v>
@@ -16729,14 +16730,14 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375">
+        <v>97</v>
+      </c>
+      <c r="C375" t="s">
+        <v>62</v>
+      </c>
+      <c r="D375" t="s">
         <v>379</v>
-      </c>
-      <c r="C375">
-        <v>97</v>
-      </c>
-      <c r="D375" t="s">
-        <v>62</v>
       </c>
       <c r="E375">
         <v>459680</v>
@@ -16761,14 +16762,14 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376">
+        <v>97</v>
+      </c>
+      <c r="C376" t="s">
+        <v>62</v>
+      </c>
+      <c r="D376" t="s">
         <v>380</v>
-      </c>
-      <c r="C376">
-        <v>97</v>
-      </c>
-      <c r="D376" t="s">
-        <v>62</v>
       </c>
       <c r="E376">
         <v>720000</v>
@@ -16793,14 +16794,14 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377">
+        <v>97</v>
+      </c>
+      <c r="C377" t="s">
+        <v>62</v>
+      </c>
+      <c r="D377" t="s">
         <v>381</v>
-      </c>
-      <c r="C377">
-        <v>97</v>
-      </c>
-      <c r="D377" t="s">
-        <v>62</v>
       </c>
       <c r="E377">
         <v>420000</v>
@@ -16825,14 +16826,14 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378">
+        <v>97</v>
+      </c>
+      <c r="C378" t="s">
+        <v>62</v>
+      </c>
+      <c r="D378" t="s">
         <v>382</v>
-      </c>
-      <c r="C378">
-        <v>97</v>
-      </c>
-      <c r="D378" t="s">
-        <v>62</v>
       </c>
       <c r="E378">
         <v>480000</v>
@@ -16857,14 +16858,14 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379">
+        <v>97</v>
+      </c>
+      <c r="C379" t="s">
+        <v>62</v>
+      </c>
+      <c r="D379" t="s">
         <v>239</v>
-      </c>
-      <c r="C379">
-        <v>97</v>
-      </c>
-      <c r="D379" t="s">
-        <v>62</v>
       </c>
       <c r="E379">
         <v>529040</v>
@@ -16889,14 +16890,14 @@
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380">
+        <v>97</v>
+      </c>
+      <c r="C380" t="s">
+        <v>62</v>
+      </c>
+      <c r="D380" t="s">
         <v>383</v>
-      </c>
-      <c r="C380">
-        <v>97</v>
-      </c>
-      <c r="D380" t="s">
-        <v>62</v>
       </c>
       <c r="E380">
         <v>800000</v>
@@ -16921,14 +16922,14 @@
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381">
+        <v>97</v>
+      </c>
+      <c r="C381" t="s">
+        <v>62</v>
+      </c>
+      <c r="D381" t="s">
         <v>301</v>
-      </c>
-      <c r="C381">
-        <v>97</v>
-      </c>
-      <c r="D381" t="s">
-        <v>62</v>
       </c>
       <c r="E381">
         <v>920000</v>
@@ -16953,14 +16954,14 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382">
+        <v>97</v>
+      </c>
+      <c r="C382" t="s">
+        <v>62</v>
+      </c>
+      <c r="D382" t="s">
         <v>384</v>
-      </c>
-      <c r="C382">
-        <v>97</v>
-      </c>
-      <c r="D382" t="s">
-        <v>62</v>
       </c>
       <c r="E382">
         <v>720000</v>
@@ -16985,14 +16986,14 @@
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383">
+        <v>97</v>
+      </c>
+      <c r="C383" t="s">
+        <v>62</v>
+      </c>
+      <c r="D383" t="s">
         <v>385</v>
-      </c>
-      <c r="C383">
-        <v>97</v>
-      </c>
-      <c r="D383" t="s">
-        <v>62</v>
       </c>
       <c r="E383">
         <v>800000</v>
@@ -17017,14 +17018,14 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384">
+        <v>97</v>
+      </c>
+      <c r="C384" t="s">
+        <v>62</v>
+      </c>
+      <c r="D384" t="s">
         <v>386</v>
-      </c>
-      <c r="C384">
-        <v>97</v>
-      </c>
-      <c r="D384" t="s">
-        <v>62</v>
       </c>
       <c r="E384">
         <v>960000</v>
@@ -17049,14 +17050,14 @@
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385">
+        <v>97</v>
+      </c>
+      <c r="C385" t="s">
+        <v>62</v>
+      </c>
+      <c r="D385" t="s">
         <v>387</v>
-      </c>
-      <c r="C385">
-        <v>97</v>
-      </c>
-      <c r="D385" t="s">
-        <v>62</v>
       </c>
       <c r="E385">
         <v>680000</v>
@@ -17081,14 +17082,14 @@
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386">
+        <v>97</v>
+      </c>
+      <c r="C386" t="s">
+        <v>62</v>
+      </c>
+      <c r="D386" t="s">
         <v>388</v>
-      </c>
-      <c r="C386">
-        <v>97</v>
-      </c>
-      <c r="D386" t="s">
-        <v>62</v>
       </c>
       <c r="E386">
         <v>560000</v>
@@ -17113,14 +17114,14 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387">
+        <v>97</v>
+      </c>
+      <c r="C387" t="s">
+        <v>62</v>
+      </c>
+      <c r="D387" t="s">
         <v>389</v>
-      </c>
-      <c r="C387">
-        <v>97</v>
-      </c>
-      <c r="D387" t="s">
-        <v>62</v>
       </c>
       <c r="E387">
         <v>460000</v>
@@ -17145,14 +17146,14 @@
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388">
+        <v>97</v>
+      </c>
+      <c r="C388" t="s">
+        <v>62</v>
+      </c>
+      <c r="D388" t="s">
         <v>390</v>
-      </c>
-      <c r="C388">
-        <v>97</v>
-      </c>
-      <c r="D388" t="s">
-        <v>62</v>
       </c>
       <c r="E388">
         <v>485760</v>
@@ -17177,14 +17178,14 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389">
+        <v>97</v>
+      </c>
+      <c r="C389" t="s">
+        <v>62</v>
+      </c>
+      <c r="D389" t="s">
         <v>391</v>
-      </c>
-      <c r="C389">
-        <v>97</v>
-      </c>
-      <c r="D389" t="s">
-        <v>62</v>
       </c>
       <c r="E389">
         <v>620000</v>
@@ -17209,14 +17210,14 @@
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390">
+        <v>97</v>
+      </c>
+      <c r="C390" t="s">
+        <v>62</v>
+      </c>
+      <c r="D390" t="s">
         <v>392</v>
-      </c>
-      <c r="C390">
-        <v>97</v>
-      </c>
-      <c r="D390" t="s">
-        <v>62</v>
       </c>
       <c r="E390">
         <v>720000</v>
@@ -17241,14 +17242,14 @@
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391">
+        <v>97</v>
+      </c>
+      <c r="C391" t="s">
+        <v>62</v>
+      </c>
+      <c r="D391" t="s">
         <v>393</v>
-      </c>
-      <c r="C391">
-        <v>97</v>
-      </c>
-      <c r="D391" t="s">
-        <v>62</v>
       </c>
       <c r="E391">
         <v>480000</v>
@@ -17273,14 +17274,14 @@
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392">
+        <v>97</v>
+      </c>
+      <c r="C392" t="s">
+        <v>62</v>
+      </c>
+      <c r="D392" t="s">
         <v>394</v>
-      </c>
-      <c r="C392">
-        <v>97</v>
-      </c>
-      <c r="D392" t="s">
-        <v>62</v>
       </c>
       <c r="E392">
         <v>600000</v>
@@ -17305,14 +17306,14 @@
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393">
+        <v>97</v>
+      </c>
+      <c r="C393" t="s">
+        <v>62</v>
+      </c>
+      <c r="D393" t="s">
         <v>395</v>
-      </c>
-      <c r="C393">
-        <v>97</v>
-      </c>
-      <c r="D393" t="s">
-        <v>62</v>
       </c>
       <c r="E393">
         <v>480000</v>
@@ -17337,14 +17338,14 @@
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394">
+        <v>97</v>
+      </c>
+      <c r="C394" t="s">
+        <v>62</v>
+      </c>
+      <c r="D394" t="s">
         <v>396</v>
-      </c>
-      <c r="C394">
-        <v>97</v>
-      </c>
-      <c r="D394" t="s">
-        <v>62</v>
       </c>
       <c r="E394">
         <v>800000</v>
@@ -17369,14 +17370,14 @@
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395">
+        <v>97</v>
+      </c>
+      <c r="C395" t="s">
+        <v>62</v>
+      </c>
+      <c r="D395" t="s">
         <v>397</v>
-      </c>
-      <c r="C395">
-        <v>97</v>
-      </c>
-      <c r="D395" t="s">
-        <v>62</v>
       </c>
       <c r="E395">
         <v>920000</v>
@@ -17401,14 +17402,14 @@
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396">
+        <v>97</v>
+      </c>
+      <c r="C396" t="s">
+        <v>62</v>
+      </c>
+      <c r="D396" t="s">
         <v>80</v>
-      </c>
-      <c r="C396">
-        <v>97</v>
-      </c>
-      <c r="D396" t="s">
-        <v>62</v>
       </c>
       <c r="E396">
         <v>563280</v>
@@ -17433,14 +17434,14 @@
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397">
+        <v>97</v>
+      </c>
+      <c r="C397" t="s">
+        <v>62</v>
+      </c>
+      <c r="D397" t="s">
         <v>159</v>
-      </c>
-      <c r="C397">
-        <v>97</v>
-      </c>
-      <c r="D397" t="s">
-        <v>62</v>
       </c>
       <c r="E397">
         <v>620000</v>
@@ -17465,14 +17466,14 @@
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398">
+        <v>99</v>
+      </c>
+      <c r="C398" t="s">
+        <v>63</v>
+      </c>
+      <c r="D398" t="s">
         <v>398</v>
-      </c>
-      <c r="C398">
-        <v>99</v>
-      </c>
-      <c r="D398" t="s">
-        <v>63</v>
       </c>
       <c r="E398">
         <v>544000</v>
@@ -17497,14 +17498,14 @@
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399">
+        <v>99</v>
+      </c>
+      <c r="C399" t="s">
+        <v>63</v>
+      </c>
+      <c r="D399" t="s">
         <v>399</v>
-      </c>
-      <c r="C399">
-        <v>99</v>
-      </c>
-      <c r="D399" t="s">
-        <v>63</v>
       </c>
       <c r="E399">
         <v>404000</v>
@@ -17529,14 +17530,14 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400">
+        <v>99</v>
+      </c>
+      <c r="C400" t="s">
+        <v>63</v>
+      </c>
+      <c r="D400" t="s">
         <v>329</v>
-      </c>
-      <c r="C400">
-        <v>99</v>
-      </c>
-      <c r="D400" t="s">
-        <v>63</v>
       </c>
       <c r="E400">
         <v>480000</v>
@@ -17561,14 +17562,14 @@
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401">
+        <v>99</v>
+      </c>
+      <c r="C401" t="s">
+        <v>63</v>
+      </c>
+      <c r="D401" t="s">
         <v>400</v>
-      </c>
-      <c r="C401">
-        <v>99</v>
-      </c>
-      <c r="D401" t="s">
-        <v>63</v>
       </c>
       <c r="E401">
         <v>576400</v>

--- a/DB/Tp_pr.xlsx
+++ b/DB/Tp_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28922E2-4C90-45FA-BF82-9A6440388C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7578D6B-7440-4669-9601-2AE3EB6D609B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="1470">
   <si>
     <t>UniqueID</t>
   </si>
@@ -4757,14 +4757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -8164,7 +8164,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
       </c>
       <c r="D107" t="s">
         <v>158</v>
@@ -8193,7 +8196,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>159</v>
@@ -8222,7 +8228,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
       </c>
       <c r="D109" t="s">
         <v>160</v>
